--- a/Code/Results/Cases/Case_5_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,845 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.63327783179321</v>
+        <v>23.04422470182671</v>
       </c>
       <c r="C2">
-        <v>18.11125581807947</v>
+        <v>16.48481898759575</v>
       </c>
       <c r="D2">
-        <v>4.599911819734827</v>
+        <v>2.818246943883694</v>
       </c>
       <c r="E2">
-        <v>6.453802392725148</v>
+        <v>30.16832768802085</v>
       </c>
       <c r="F2">
-        <v>39.55228020410988</v>
+        <v>30.31530003422318</v>
       </c>
       <c r="I2">
-        <v>25.63906882644651</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.41842617407737</v>
       </c>
       <c r="L2">
-        <v>9.715368847334977</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>15.70040977738829</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>11.13320717691371</v>
+      </c>
+      <c r="O2">
+        <v>23.21228324882431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.09186491891839</v>
+        <v>21.39776750140487</v>
       </c>
       <c r="C3">
-        <v>16.81024177288228</v>
+        <v>15.34084992034832</v>
       </c>
       <c r="D3">
-        <v>4.614389614654163</v>
+        <v>2.936332199016276</v>
       </c>
       <c r="E3">
-        <v>6.370600376429398</v>
+        <v>27.89655333775625</v>
       </c>
       <c r="F3">
-        <v>37.43233729040539</v>
+        <v>28.67904039013712</v>
       </c>
       <c r="I3">
-        <v>24.66655678658044</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.99584987323516</v>
       </c>
       <c r="L3">
-        <v>9.23028764270871</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.6133690716732</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>11.41692063581666</v>
+      </c>
+      <c r="O3">
+        <v>22.11793780720742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.0978549640445</v>
+        <v>20.33610704414609</v>
       </c>
       <c r="C4">
-        <v>15.9729533825385</v>
+        <v>14.60455069681288</v>
       </c>
       <c r="D4">
-        <v>4.626392687004828</v>
+        <v>3.008739225314331</v>
       </c>
       <c r="E4">
-        <v>6.323482218499183</v>
+        <v>26.44532528107082</v>
       </c>
       <c r="F4">
-        <v>36.11645881701795</v>
+        <v>27.67061867430039</v>
       </c>
       <c r="I4">
-        <v>24.07853630983769</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.07924136054302</v>
       </c>
       <c r="L4">
-        <v>8.929701903287626</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>13.91371117347189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>11.59371414515853</v>
+      </c>
+      <c r="O4">
+        <v>21.45323017173029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.68059936326928</v>
+        <v>19.89047544427155</v>
       </c>
       <c r="C5">
-        <v>15.62186714902009</v>
+        <v>14.2958126784733</v>
       </c>
       <c r="D5">
-        <v>4.632003374789953</v>
+        <v>3.038267577819411</v>
       </c>
       <c r="E5">
-        <v>6.305238259097404</v>
+        <v>25.83918573930215</v>
       </c>
       <c r="F5">
-        <v>35.57701887349498</v>
+        <v>27.25902528157979</v>
       </c>
       <c r="I5">
-        <v>23.84128059889945</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.69466778667778</v>
       </c>
       <c r="L5">
-        <v>8.806624165162747</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.62034598186671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>11.66645769683912</v>
+      </c>
+      <c r="O5">
+        <v>21.18432903286228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.61057194147171</v>
+        <v>19.81568702294427</v>
       </c>
       <c r="C6">
-        <v>15.56296661098107</v>
+        <v>14.24401760449264</v>
       </c>
       <c r="D6">
-        <v>4.632976721483076</v>
+        <v>3.043173353968367</v>
       </c>
       <c r="E6">
-        <v>6.302265495411653</v>
+        <v>25.73762974801943</v>
       </c>
       <c r="F6">
-        <v>35.48726480409879</v>
+        <v>27.19065161480645</v>
       </c>
       <c r="I6">
-        <v>23.80203026714586</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.63013687390306</v>
       </c>
       <c r="L6">
-        <v>8.786155354916399</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.57113062950021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>11.67858025446417</v>
+      </c>
+      <c r="O6">
+        <v>21.1398029426781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.09227734665541</v>
+        <v>20.3301500272597</v>
       </c>
       <c r="C7">
-        <v>15.96825880340417</v>
+        <v>14.60042234016106</v>
       </c>
       <c r="D7">
-        <v>4.626465521972907</v>
+        <v>3.009137307402422</v>
       </c>
       <c r="E7">
-        <v>6.323232352036431</v>
+        <v>26.43721113283489</v>
       </c>
       <c r="F7">
-        <v>36.10919615010618</v>
+        <v>27.665069964842</v>
       </c>
       <c r="I7">
-        <v>24.07532688709168</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.07409985122401</v>
       </c>
       <c r="L7">
-        <v>8.928044251125538</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>13.90978833392687</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>11.59469229991848</v>
+      </c>
+      <c r="O7">
+        <v>21.44959544385673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.1115325366349</v>
+        <v>22.48690460994662</v>
       </c>
       <c r="C8">
-        <v>17.67051514914322</v>
+        <v>16.09730762553641</v>
       </c>
       <c r="D8">
-        <v>4.60421736817371</v>
+        <v>2.859012146209404</v>
       </c>
       <c r="E8">
-        <v>6.424265792400048</v>
+        <v>29.39634557147498</v>
       </c>
       <c r="F8">
-        <v>38.82445512997175</v>
+        <v>29.75203558225725</v>
       </c>
       <c r="I8">
-        <v>25.30189311499161</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.93674901869521</v>
       </c>
       <c r="L8">
-        <v>9.548735092545908</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>15.33218854995975</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>11.23052225433404</v>
+      </c>
+      <c r="O8">
+        <v>22.83352844869194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.70487264894054</v>
+        <v>26.32571142356147</v>
       </c>
       <c r="C9">
-        <v>20.71403251524542</v>
+        <v>18.77235232567327</v>
       </c>
       <c r="D9">
-        <v>4.588494782125361</v>
+        <v>2.561553588431223</v>
       </c>
       <c r="E9">
-        <v>6.655805041249209</v>
+        <v>34.78193924618629</v>
       </c>
       <c r="F9">
-        <v>44.02740871024776</v>
+        <v>33.80829681878099</v>
       </c>
       <c r="I9">
-        <v>27.77814556141184</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.25726950971546</v>
       </c>
       <c r="L9">
-        <v>10.74122825081004</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>17.87356027357149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>10.53477113112955</v>
+      </c>
+      <c r="O9">
+        <v>25.60145786256914</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.13865501532459</v>
+        <v>28.92663628066191</v>
       </c>
       <c r="C10">
-        <v>22.78695310442858</v>
+        <v>20.59294644952247</v>
       </c>
       <c r="D10">
-        <v>4.598987357892417</v>
+        <v>2.337699174947156</v>
       </c>
       <c r="E10">
-        <v>6.849182537307073</v>
+        <v>38.5328076272619</v>
       </c>
       <c r="F10">
-        <v>47.77526085293439</v>
+        <v>36.79917501286033</v>
       </c>
       <c r="I10">
-        <v>29.64310553471957</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>25.510589186167</v>
       </c>
       <c r="L10">
-        <v>11.73491480858138</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>19.60165484056566</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>10.03174884232977</v>
+      </c>
+      <c r="O10">
+        <v>27.66994510162548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.20544689105853</v>
+        <v>30.06708080569799</v>
       </c>
       <c r="C11">
-        <v>23.6988018732476</v>
+        <v>21.39351056967732</v>
       </c>
       <c r="D11">
-        <v>4.609857962553099</v>
+        <v>2.233898028921998</v>
       </c>
       <c r="E11">
-        <v>6.942934903704957</v>
+        <v>40.20776274739242</v>
       </c>
       <c r="F11">
-        <v>49.46720809147011</v>
+        <v>38.27090831379378</v>
       </c>
       <c r="I11">
-        <v>30.50336999437988</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26.49953497763299</v>
       </c>
       <c r="L11">
-        <v>12.21224403257052</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>20.3607881607865</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>9.804036344130955</v>
+      </c>
+      <c r="O11">
+        <v>28.75909882718372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.60403358285904</v>
+        <v>30.49327075807414</v>
       </c>
       <c r="C12">
-        <v>24.04003115403936</v>
+        <v>21.69306689682113</v>
       </c>
       <c r="D12">
-        <v>4.614978894417902</v>
+        <v>2.194240884953865</v>
       </c>
       <c r="E12">
-        <v>6.979338456885972</v>
+        <v>40.83888637746539</v>
       </c>
       <c r="F12">
-        <v>50.10653149766561</v>
+        <v>38.826332111427</v>
       </c>
       <c r="I12">
-        <v>30.83111192893316</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.86925770600518</v>
       </c>
       <c r="L12">
-        <v>12.39092558621069</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>20.64468077920526</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>9.717920527934732</v>
+      </c>
+      <c r="O12">
+        <v>29.1867449182913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.51842297967311</v>
+        <v>30.40172702659782</v>
       </c>
       <c r="C13">
-        <v>23.96671508692264</v>
+        <v>21.62870553253581</v>
       </c>
       <c r="D13">
-        <v>4.613829113342598</v>
+        <v>2.2027983370572</v>
       </c>
       <c r="E13">
-        <v>6.971456975514605</v>
+        <v>40.70307795836264</v>
       </c>
       <c r="F13">
-        <v>49.96889335617033</v>
+        <v>38.70678386119848</v>
       </c>
       <c r="I13">
-        <v>30.76043343001843</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.78983595614235</v>
       </c>
       <c r="L13">
-        <v>12.35253185328266</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>20.58369304873067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>9.736462703686707</v>
+      </c>
+      <c r="O13">
+        <v>29.09468983630261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.23834416156217</v>
+        <v>30.10225439919193</v>
       </c>
       <c r="C14">
-        <v>23.72695398353169</v>
+        <v>21.41822502305634</v>
       </c>
       <c r="D14">
-        <v>4.610258339492777</v>
+        <v>2.230642791834971</v>
       </c>
       <c r="E14">
-        <v>6.945911339096224</v>
+        <v>40.25973996409095</v>
       </c>
       <c r="F14">
-        <v>49.51982980950606</v>
+        <v>38.31663703331316</v>
       </c>
       <c r="I14">
-        <v>30.53029195275345</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>26.53004521256987</v>
       </c>
       <c r="L14">
-        <v>12.2269845088601</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>20.3842139053613</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>9.796949501004823</v>
+      </c>
+      <c r="O14">
+        <v>28.79430327697353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.06610001622262</v>
+        <v>29.91809546770865</v>
       </c>
       <c r="C15">
-        <v>23.57957676418257</v>
+        <v>21.28884301477235</v>
       </c>
       <c r="D15">
-        <v>4.608206037151048</v>
+        <v>2.247650841142291</v>
       </c>
       <c r="E15">
-        <v>6.93038356295058</v>
+        <v>39.98781789266946</v>
       </c>
       <c r="F15">
-        <v>49.24460334552458</v>
+        <v>38.07743623935665</v>
       </c>
       <c r="I15">
-        <v>30.38959108006381</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>26.37030844475449</v>
       </c>
       <c r="L15">
-        <v>12.14981991305145</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>20.26157148807833</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>9.834012991475936</v>
+      </c>
+      <c r="O15">
+        <v>28.61016163908891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.06816015929779</v>
+        <v>28.85128448422252</v>
       </c>
       <c r="C16">
-        <v>22.72676878395288</v>
+        <v>20.54010216338179</v>
       </c>
       <c r="D16">
-        <v>4.598410158143363</v>
+        <v>2.344437429409973</v>
       </c>
       <c r="E16">
-        <v>6.843177725719859</v>
+        <v>38.42282531172548</v>
       </c>
       <c r="F16">
-        <v>47.66446424441439</v>
+        <v>36.70269160384619</v>
       </c>
       <c r="I16">
-        <v>29.58714509467918</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>25.44526732176943</v>
       </c>
       <c r="L16">
-        <v>11.70341816365379</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>19.55152581130615</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>10.04664872069398</v>
+      </c>
+      <c r="O16">
+        <v>27.60802065155261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.44590188309611</v>
+        <v>28.18620053740717</v>
       </c>
       <c r="C17">
-        <v>22.19589766584939</v>
+        <v>20.07394292836243</v>
       </c>
       <c r="D17">
-        <v>4.594047949673672</v>
+        <v>2.403260376156733</v>
       </c>
       <c r="E17">
-        <v>6.791207749366823</v>
+        <v>37.45561718292856</v>
       </c>
       <c r="F17">
-        <v>46.69206377922265</v>
+        <v>35.90932437633076</v>
       </c>
       <c r="I17">
-        <v>29.09807460194657</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>24.86881756088507</v>
       </c>
       <c r="L17">
-        <v>11.42564142593032</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>19.10922811759918</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>10.17734460473489</v>
+      </c>
+      <c r="O17">
+        <v>27.0664946369186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.08416953975718</v>
+        <v>27.79960779006415</v>
       </c>
       <c r="C18">
-        <v>21.88759660697879</v>
+        <v>19.80319376229082</v>
       </c>
       <c r="D18">
-        <v>4.592104257641883</v>
+        <v>2.436912506414751</v>
       </c>
       <c r="E18">
-        <v>6.761855696514717</v>
+        <v>36.8962605144557</v>
       </c>
       <c r="F18">
-        <v>46.13150383343719</v>
+        <v>35.46613475561247</v>
       </c>
       <c r="I18">
-        <v>28.81787099714537</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>24.53383209490248</v>
       </c>
       <c r="L18">
-        <v>11.26436432611851</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>18.8522694651726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>10.2526248824055</v>
+      </c>
+      <c r="O18">
+        <v>26.755946786196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.96102428206499</v>
+        <v>27.66800460021707</v>
       </c>
       <c r="C19">
-        <v>21.78269159921495</v>
+        <v>19.71106122689987</v>
       </c>
       <c r="D19">
-        <v>4.59153963925711</v>
+        <v>2.448277481174824</v>
       </c>
       <c r="E19">
-        <v>6.752008325216975</v>
+        <v>36.70631176007343</v>
       </c>
       <c r="F19">
-        <v>45.9414796101994</v>
+        <v>35.31604010611698</v>
       </c>
       <c r="I19">
-        <v>28.72318067937375</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>24.41981144731113</v>
       </c>
       <c r="L19">
-        <v>11.20949390627256</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>18.76481926450198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>10.27813345549428</v>
+      </c>
+      <c r="O19">
+        <v>26.65095038070476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.51253545539521</v>
+        <v>28.25741624517866</v>
       </c>
       <c r="C20">
-        <v>22.2527131722177</v>
+        <v>20.12383572178995</v>
       </c>
       <c r="D20">
-        <v>4.594452934001717</v>
+        <v>2.397017827607558</v>
       </c>
       <c r="E20">
-        <v>6.796683711555852</v>
+        <v>37.55888415766045</v>
       </c>
       <c r="F20">
-        <v>46.79570506191669</v>
+        <v>35.99133331290869</v>
       </c>
       <c r="I20">
-        <v>29.15002184813848</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.93053344468836</v>
       </c>
       <c r="L20">
-        <v>11.45536581177291</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>19.15657441188927</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>10.16342103835364</v>
+      </c>
+      <c r="O20">
+        <v>27.12404321717596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.3207526015931</v>
+        <v>30.19036655081195</v>
       </c>
       <c r="C21">
-        <v>23.7974844776837</v>
+        <v>21.48014264817844</v>
       </c>
       <c r="D21">
-        <v>4.611278796186157</v>
+        <v>2.222474207976855</v>
       </c>
       <c r="E21">
-        <v>6.953389633823486</v>
+        <v>40.39003227764837</v>
       </c>
       <c r="F21">
-        <v>49.65176329403247</v>
+        <v>38.4312780498872</v>
       </c>
       <c r="I21">
-        <v>30.59783372071395</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>26.60647778632533</v>
       </c>
       <c r="L21">
-        <v>12.26391524692176</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>20.44290011751894</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>9.779180304572439</v>
+      </c>
+      <c r="O21">
+        <v>28.88256340917112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.47138276262123</v>
+        <v>31.42088042749425</v>
       </c>
       <c r="C22">
-        <v>24.78360605576425</v>
+        <v>22.34580821684705</v>
       </c>
       <c r="D22">
-        <v>4.628202845141867</v>
+        <v>2.106334271200084</v>
       </c>
       <c r="E22">
-        <v>7.061101703024033</v>
+        <v>42.22285523101109</v>
       </c>
       <c r="F22">
-        <v>51.51068499429891</v>
+        <v>40.04520492471537</v>
       </c>
       <c r="I22">
-        <v>31.55579814635045</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>27.67425325788981</v>
       </c>
       <c r="L22">
-        <v>12.78038767732804</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>21.26292885958329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>9.52870545898355</v>
+      </c>
+      <c r="O22">
+        <v>30.12561654995154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.85996531956867</v>
+        <v>30.76695452586574</v>
       </c>
       <c r="C23">
-        <v>24.25929088307003</v>
+        <v>21.88554434365764</v>
       </c>
       <c r="D23">
-        <v>4.618580865517429</v>
+        <v>2.168529851069471</v>
       </c>
       <c r="E23">
-        <v>7.003103186140672</v>
+        <v>41.24572111905167</v>
       </c>
       <c r="F23">
-        <v>50.51903428267418</v>
+        <v>39.184536253865</v>
       </c>
       <c r="I23">
-        <v>31.04332348544818</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>27.10672378993119</v>
       </c>
       <c r="L23">
-        <v>12.50575400537161</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>20.82704102301971</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>9.662342527441496</v>
+      </c>
+      <c r="O23">
+        <v>29.46260265552948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.48242286909245</v>
+        <v>28.22523282481021</v>
       </c>
       <c r="C24">
-        <v>22.22703655569481</v>
+        <v>20.10128777650921</v>
       </c>
       <c r="D24">
-        <v>4.594268092669732</v>
+        <v>2.399840595703177</v>
       </c>
       <c r="E24">
-        <v>6.794206395232613</v>
+        <v>37.51220752209546</v>
       </c>
       <c r="F24">
-        <v>46.74885358775079</v>
+        <v>35.95425821189119</v>
       </c>
       <c r="I24">
-        <v>29.12653349720278</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.9026428653724</v>
       </c>
       <c r="L24">
-        <v>11.44193235219968</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>19.1351775092525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>10.16971543855279</v>
+      </c>
+      <c r="O24">
+        <v>27.09802309191184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.77034725373592</v>
+        <v>25.32723199153301</v>
       </c>
       <c r="C25">
-        <v>19.92063335815807</v>
+        <v>18.07523247732599</v>
       </c>
       <c r="D25">
-        <v>4.589278154397962</v>
+        <v>2.642692176385466</v>
       </c>
       <c r="E25">
-        <v>6.589306404113842</v>
+        <v>33.36510053072021</v>
       </c>
       <c r="F25">
-        <v>42.63352760064746</v>
+        <v>32.71524522181535</v>
       </c>
       <c r="I25">
-        <v>27.10063131039302</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>22.39299104265656</v>
       </c>
       <c r="L25">
-        <v>10.42154216158238</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>17.21143787804478</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>10.72133727919496</v>
+      </c>
+      <c r="O25">
+        <v>24.84701173000537</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_line/loading_percent.xlsx
@@ -421,28 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.04422470182671</v>
+        <v>14.12035241250456</v>
       </c>
       <c r="C2">
-        <v>16.48481898759575</v>
+        <v>9.115853676679505</v>
       </c>
       <c r="D2">
-        <v>2.818246943883694</v>
+        <v>4.662929104456812</v>
       </c>
       <c r="E2">
-        <v>30.16832768802085</v>
+        <v>29.53879786918712</v>
       </c>
       <c r="F2">
-        <v>30.31530003422318</v>
+        <v>17.80078155533926</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12.55053810938382</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.41842617407737</v>
+        <v>13.05582271223941</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.13320717691371</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>23.21228324882431</v>
+        <v>14.09471163310053</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,28 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.39776750140487</v>
+        <v>13.24897914942744</v>
       </c>
       <c r="C3">
-        <v>15.34084992034832</v>
+        <v>8.606258930415017</v>
       </c>
       <c r="D3">
-        <v>2.936332199016276</v>
+        <v>4.518399001635069</v>
       </c>
       <c r="E3">
-        <v>27.89655333775625</v>
+        <v>27.40475874501703</v>
       </c>
       <c r="F3">
-        <v>28.67904039013712</v>
+        <v>17.42858056030553</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.72584046377977</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.99584987323516</v>
+        <v>12.33238349852402</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.41692063581666</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>22.11793780720742</v>
+        <v>14.05629736345611</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,28 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.33610704414609</v>
+        <v>12.68453588634342</v>
       </c>
       <c r="C4">
-        <v>14.60455069681288</v>
+        <v>8.278322811109218</v>
       </c>
       <c r="D4">
-        <v>3.008739225314331</v>
+        <v>4.426715713475781</v>
       </c>
       <c r="E4">
-        <v>26.44532528107082</v>
+        <v>26.03082160910768</v>
       </c>
       <c r="F4">
-        <v>27.67061867430039</v>
+        <v>17.21767565573755</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.84614180910486</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.07924136054302</v>
+        <v>11.86630962754649</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.59371414515853</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>21.45323017173029</v>
+        <v>14.04931470589847</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,28 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.89047544427155</v>
+        <v>12.44713614679257</v>
       </c>
       <c r="C5">
-        <v>14.2958126784733</v>
+        <v>8.140943553494914</v>
       </c>
       <c r="D5">
-        <v>3.038267577819411</v>
+        <v>4.388648962817017</v>
       </c>
       <c r="E5">
-        <v>25.83918573930215</v>
+        <v>25.45463777053181</v>
       </c>
       <c r="F5">
-        <v>27.25902528157979</v>
+        <v>17.13613183366639</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.89817481784008</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.69466778667778</v>
+        <v>11.67094310280153</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.66645769683912</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>21.18432903286228</v>
+        <v>14.05044725619005</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,28 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.81568702294427</v>
+        <v>12.40727075881278</v>
       </c>
       <c r="C6">
-        <v>14.24401760449264</v>
+        <v>8.117907264369457</v>
       </c>
       <c r="D6">
-        <v>3.043173353968367</v>
+        <v>4.382286499416418</v>
       </c>
       <c r="E6">
-        <v>25.73762974801943</v>
+        <v>25.3579705366856</v>
       </c>
       <c r="F6">
-        <v>27.19065161480645</v>
+        <v>17.12285614810182</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.90699174075583</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.63013687390306</v>
+        <v>11.638176516735</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.67858025446417</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>21.1398029426781</v>
+        <v>14.05086977515601</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,28 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.3301500272597</v>
+        <v>12.68136410270254</v>
       </c>
       <c r="C7">
-        <v>14.60042234016106</v>
+        <v>8.276485155918531</v>
       </c>
       <c r="D7">
-        <v>3.009137307402422</v>
+        <v>4.426205138642643</v>
       </c>
       <c r="E7">
-        <v>26.43721113283489</v>
+        <v>26.02311733994001</v>
       </c>
       <c r="F7">
-        <v>27.665069964842</v>
+        <v>17.21655815867534</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.84683158203528</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.07409985122401</v>
+        <v>11.86369676278748</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.59469229991848</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>21.44959544385673</v>
+        <v>14.04931413496042</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,28 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.48690460994662</v>
+        <v>13.82601122705086</v>
       </c>
       <c r="C8">
-        <v>16.09730762553641</v>
+        <v>8.943286856241215</v>
       </c>
       <c r="D8">
-        <v>2.859012146209404</v>
+        <v>4.61372523868783</v>
       </c>
       <c r="E8">
-        <v>29.39634557147498</v>
+        <v>28.81600522253776</v>
       </c>
       <c r="F8">
-        <v>29.75203558225725</v>
+        <v>17.66877419761623</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.60824383057536</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.93674901869521</v>
+        <v>12.81095389694658</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.23052225433404</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>22.83352844869194</v>
+        <v>14.07790247810947</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,28 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.32571142356147</v>
+        <v>15.83744580590103</v>
       </c>
       <c r="C9">
-        <v>18.77235232567327</v>
+        <v>10.13052621696656</v>
       </c>
       <c r="D9">
-        <v>2.561553588431223</v>
+        <v>4.956769522813438</v>
       </c>
       <c r="E9">
-        <v>34.78193924618629</v>
+        <v>33.80218767844861</v>
       </c>
       <c r="F9">
-        <v>33.80829681878099</v>
+        <v>18.69612417016289</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.24948536151263</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.25726950971546</v>
+        <v>14.49313600949234</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.53477113112955</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>25.60145786256914</v>
+        <v>14.27435149980524</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,28 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.92663628066191</v>
+        <v>17.17423014673444</v>
       </c>
       <c r="C10">
-        <v>20.59294644952247</v>
+        <v>10.92902733310063</v>
       </c>
       <c r="D10">
-        <v>2.337699174947156</v>
+        <v>5.19218616896029</v>
       </c>
       <c r="E10">
-        <v>38.5328076272619</v>
+        <v>37.18785137141799</v>
       </c>
       <c r="F10">
-        <v>36.79917501286033</v>
+        <v>19.53692164341028</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>12.06546455777084</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.510589186167</v>
+        <v>15.62098014829978</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.03174884232977</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>27.66994510162548</v>
+        <v>14.51576481010679</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,28 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.06708080569799</v>
+        <v>17.75220206536923</v>
       </c>
       <c r="C11">
-        <v>21.39351056967732</v>
+        <v>11.27641883333611</v>
       </c>
       <c r="D11">
-        <v>2.233898028921998</v>
+        <v>5.295403033643171</v>
       </c>
       <c r="E11">
-        <v>40.20776274739242</v>
+        <v>38.67306467072071</v>
       </c>
       <c r="F11">
-        <v>38.27090831379378</v>
+        <v>19.93807894341743</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>12.00220682401472</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.49953497763299</v>
+        <v>16.1106634583957</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.804036344130955</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>28.75909882718372</v>
+        <v>14.64902703641121</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,28 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.49327075807414</v>
+        <v>17.96677852231816</v>
       </c>
       <c r="C12">
-        <v>21.69306689682113</v>
+        <v>11.40571225738675</v>
       </c>
       <c r="D12">
-        <v>2.194240884953865</v>
+        <v>5.333912150628898</v>
       </c>
       <c r="E12">
-        <v>40.83888637746539</v>
+        <v>39.22806530073891</v>
       </c>
       <c r="F12">
-        <v>38.826332111427</v>
+        <v>20.0926717370543</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>11.98148331394168</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.86925770600518</v>
+        <v>16.29275212227332</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.717920527934732</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>29.1867449182913</v>
+        <v>14.70304675844109</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,28 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.40172702659782</v>
+        <v>17.92075559620692</v>
       </c>
       <c r="C13">
-        <v>21.62870553253581</v>
+        <v>11.37796648214805</v>
       </c>
       <c r="D13">
-        <v>2.2027983370572</v>
+        <v>5.32564446575117</v>
       </c>
       <c r="E13">
-        <v>40.70307795836264</v>
+        <v>39.10885762076428</v>
       </c>
       <c r="F13">
-        <v>38.70678386119848</v>
+        <v>20.05925801502488</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>11.98579797881236</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.78983595614235</v>
+        <v>16.25368437854539</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.736462703686707</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>29.09468983630261</v>
+        <v>14.69125158133826</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,28 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.10225439919193</v>
+        <v>17.76994107143627</v>
       </c>
       <c r="C14">
-        <v>21.41822502305634</v>
+        <v>11.28710093294374</v>
       </c>
       <c r="D14">
-        <v>2.230642791834971</v>
+        <v>5.298582866738547</v>
       </c>
       <c r="E14">
-        <v>40.25973996409095</v>
+        <v>38.71887060897897</v>
       </c>
       <c r="F14">
-        <v>38.31663703331316</v>
+        <v>19.95074359107824</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>12.0004354086835</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.53004521256987</v>
+        <v>16.12571087315477</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.796949501004823</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>28.79430327697353</v>
+        <v>14.65339895538311</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,28 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.91809546770865</v>
+        <v>17.67700573851816</v>
       </c>
       <c r="C15">
-        <v>21.28884301477235</v>
+        <v>11.23115018292589</v>
       </c>
       <c r="D15">
-        <v>2.247650841142291</v>
+        <v>5.281931190906218</v>
       </c>
       <c r="E15">
-        <v>39.98781789266946</v>
+        <v>38.47904156149558</v>
       </c>
       <c r="F15">
-        <v>38.07743623935665</v>
+        <v>19.88462488969287</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>12.00983093847231</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.37030844475449</v>
+        <v>16.04688867581184</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.834012991475936</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>28.61016163908891</v>
+        <v>14.63068166933362</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,28 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.85128448422252</v>
+        <v>17.13585551819586</v>
       </c>
       <c r="C16">
-        <v>20.54010216338179</v>
+        <v>10.90600728613991</v>
       </c>
       <c r="D16">
-        <v>2.344437429409973</v>
+        <v>5.185360989923979</v>
       </c>
       <c r="E16">
-        <v>38.42282531172548</v>
+        <v>37.08972376444994</v>
       </c>
       <c r="F16">
-        <v>36.70269160384619</v>
+        <v>19.51108048910097</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>12.07003448583445</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.44526732176943</v>
+        <v>15.58850903657648</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.04664872069398</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>27.60802065155261</v>
+        <v>14.50754347419398</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,28 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.18620053740717</v>
+        <v>16.79618766354637</v>
       </c>
       <c r="C17">
-        <v>20.07394292836243</v>
+        <v>10.70249636403789</v>
       </c>
       <c r="D17">
-        <v>2.403260376156733</v>
+        <v>5.12511098679155</v>
       </c>
       <c r="E17">
-        <v>37.45561718292856</v>
+        <v>36.22367840395617</v>
       </c>
       <c r="F17">
-        <v>35.90932437633076</v>
+        <v>19.2867022849741</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>12.11240591915644</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.86881756088507</v>
+        <v>15.30132934549039</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.17734460473489</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>27.0664946369186</v>
+        <v>14.43813967010381</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,28 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.79960779006415</v>
+        <v>16.59797976508719</v>
       </c>
       <c r="C18">
-        <v>19.80319376229082</v>
+        <v>10.58394833709744</v>
       </c>
       <c r="D18">
-        <v>2.436912506414751</v>
+        <v>5.090093017688414</v>
       </c>
       <c r="E18">
-        <v>36.8962605144557</v>
+        <v>35.72034887044578</v>
       </c>
       <c r="F18">
-        <v>35.46613475561247</v>
+        <v>19.15940343725061</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>12.13868352901521</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.53383209490248</v>
+        <v>15.13394884629621</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.2526248824055</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>26.755946786196</v>
+        <v>14.40041618432079</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,28 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.66800460021707</v>
+        <v>16.53038098110234</v>
       </c>
       <c r="C19">
-        <v>19.71106122689987</v>
+        <v>10.54355287864411</v>
       </c>
       <c r="D19">
-        <v>2.448277481174824</v>
+        <v>5.078174696980043</v>
       </c>
       <c r="E19">
-        <v>36.70631176007343</v>
+        <v>35.54902258646083</v>
       </c>
       <c r="F19">
-        <v>35.31604010611698</v>
+        <v>19.11660428206556</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>12.14789965520717</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.41981144731113</v>
+        <v>15.0768980689144</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.27813345549428</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>26.65095038070476</v>
+        <v>14.38801505493693</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,28 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.25741624517866</v>
+        <v>16.83263950938809</v>
       </c>
       <c r="C20">
-        <v>20.12383572178995</v>
+        <v>10.72431492728744</v>
       </c>
       <c r="D20">
-        <v>2.397017827607558</v>
+        <v>5.13156250018972</v>
       </c>
       <c r="E20">
-        <v>37.55888415766045</v>
+        <v>36.31640557838095</v>
       </c>
       <c r="F20">
-        <v>35.99133331290869</v>
+        <v>19.31040586747725</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>12.10769603959474</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.93053344468836</v>
+        <v>15.3321279525716</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.16342103835364</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>27.12404321717596</v>
+        <v>14.4452992145145</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,28 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.19036655081195</v>
+        <v>17.81435495716709</v>
       </c>
       <c r="C21">
-        <v>21.48014264817844</v>
+        <v>11.31385134915031</v>
       </c>
       <c r="D21">
-        <v>2.222474207976855</v>
+        <v>5.306547314451814</v>
       </c>
       <c r="E21">
-        <v>40.39003227764837</v>
+        <v>38.83361644406318</v>
       </c>
       <c r="F21">
-        <v>38.4312780498872</v>
+        <v>19.98254405978601</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>11.99604595098443</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.60647778632533</v>
+        <v>16.16339034317023</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.779180304572439</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>28.88256340917112</v>
+        <v>14.66441922171839</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,28 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.42088042749425</v>
+        <v>18.43098986305564</v>
       </c>
       <c r="C22">
-        <v>22.34580821684705</v>
+        <v>11.68601399055012</v>
       </c>
       <c r="D22">
-        <v>2.106334271200084</v>
+        <v>5.417540162881334</v>
       </c>
       <c r="E22">
-        <v>42.22285523101109</v>
+        <v>40.43578831932446</v>
       </c>
       <c r="F22">
-        <v>40.04520492471537</v>
+        <v>20.43747142702944</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>11.94205627103786</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.67425325788981</v>
+        <v>16.68719453067888</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.52870545898355</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>30.12561654995154</v>
+        <v>14.8284379904546</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,28 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.76695452586574</v>
+        <v>18.10414833494196</v>
       </c>
       <c r="C23">
-        <v>21.88554434365764</v>
+        <v>11.48857543426073</v>
       </c>
       <c r="D23">
-        <v>2.168529851069471</v>
+        <v>5.35861538263401</v>
       </c>
       <c r="E23">
-        <v>41.24572111905167</v>
+        <v>39.5844372001298</v>
       </c>
       <c r="F23">
-        <v>39.184536253865</v>
+        <v>20.19323470954107</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>11.96903409273225</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.10672378993119</v>
+        <v>16.40940337131885</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.662342527441496</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>29.46260265552948</v>
+        <v>14.73893381639595</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,28 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.22523282481021</v>
+        <v>16.81616875425611</v>
       </c>
       <c r="C24">
-        <v>20.10128777650921</v>
+        <v>10.71445557468318</v>
       </c>
       <c r="D24">
-        <v>2.399840595703177</v>
+        <v>5.128646951340643</v>
       </c>
       <c r="E24">
-        <v>37.51220752209546</v>
+        <v>36.27450056728219</v>
       </c>
       <c r="F24">
-        <v>35.95425821189119</v>
+        <v>19.29968418497495</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>12.1098194245951</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.9026428653724</v>
+        <v>15.31821099610348</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.16971543855279</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>27.09802309191184</v>
+        <v>14.44205561556719</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,28 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.32723199153301</v>
+        <v>15.31818677321209</v>
       </c>
       <c r="C25">
-        <v>18.07523247732599</v>
+        <v>9.822316102905052</v>
       </c>
       <c r="D25">
-        <v>2.642692176385466</v>
+        <v>4.866783494890556</v>
       </c>
       <c r="E25">
-        <v>33.36510053072021</v>
+        <v>32.50371760334177</v>
       </c>
       <c r="F25">
-        <v>32.71524522181535</v>
+        <v>18.4030895264132</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12.33357942279313</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.39299104265656</v>
+        <v>14.05701305694457</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.72133727919496</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>24.84701173000537</v>
+        <v>14.20497179684661</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.12035241250456</v>
+        <v>8.936014356752448</v>
       </c>
       <c r="C2">
-        <v>9.115853676679505</v>
+        <v>5.822997384038935</v>
       </c>
       <c r="D2">
-        <v>4.662929104456812</v>
+        <v>4.69325500866014</v>
       </c>
       <c r="E2">
-        <v>29.53879786918712</v>
+        <v>16.47667668692905</v>
       </c>
       <c r="F2">
-        <v>17.80078155533926</v>
+        <v>23.15625613623854</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>12.55053810938382</v>
+        <v>19.6611083466157</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.05582271223941</v>
+        <v>8.689240716366754</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.09471163310053</v>
+        <v>20.72629569191747</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.24897914942744</v>
+        <v>8.5634517970842</v>
       </c>
       <c r="C3">
-        <v>8.606258930415017</v>
+        <v>5.567647760220535</v>
       </c>
       <c r="D3">
-        <v>4.518399001635069</v>
+        <v>4.638264397795136</v>
       </c>
       <c r="E3">
-        <v>27.40475874501703</v>
+        <v>15.5442172489596</v>
       </c>
       <c r="F3">
-        <v>17.42858056030553</v>
+        <v>23.18289448938697</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>12.72584046377977</v>
+        <v>19.76091451388519</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.33238349852402</v>
+        <v>8.418152913604663</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.05629736345611</v>
+        <v>20.80098525690403</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.68453588634342</v>
+        <v>8.327146427361857</v>
       </c>
       <c r="C4">
-        <v>8.278322811109218</v>
+        <v>5.403620833193349</v>
       </c>
       <c r="D4">
-        <v>4.426715713475781</v>
+        <v>4.603726679817777</v>
       </c>
       <c r="E4">
-        <v>26.03082160910768</v>
+        <v>14.94693422056099</v>
       </c>
       <c r="F4">
-        <v>17.21767565573755</v>
+        <v>23.20656156170801</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>12.84614180910486</v>
+        <v>19.82664799666077</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.86630962754649</v>
+        <v>8.248216453697529</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.04931470589847</v>
+        <v>20.85225484366284</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.44713614679257</v>
+        <v>8.229090050531916</v>
       </c>
       <c r="C5">
-        <v>8.140943553494914</v>
+        <v>5.335010840440932</v>
       </c>
       <c r="D5">
-        <v>4.388648962817017</v>
+        <v>4.589465623672242</v>
       </c>
       <c r="E5">
-        <v>25.45463777053181</v>
+        <v>14.6975833398294</v>
       </c>
       <c r="F5">
-        <v>17.13613183366639</v>
+        <v>23.21803850255876</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>12.89817481784008</v>
+        <v>19.85455235888398</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.67094310280153</v>
+        <v>8.178193129835098</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.05044725619005</v>
+        <v>20.87450258663557</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.40727075881278</v>
+        <v>8.212705956464303</v>
       </c>
       <c r="C6">
-        <v>8.117907264369457</v>
+        <v>5.323513157659692</v>
       </c>
       <c r="D6">
-        <v>4.382286499416418</v>
+        <v>4.587086543557889</v>
       </c>
       <c r="E6">
-        <v>25.3579705366856</v>
+        <v>14.65582819829871</v>
       </c>
       <c r="F6">
-        <v>17.12285614810182</v>
+        <v>23.22005471693912</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>12.90699174075583</v>
+        <v>19.85925328745865</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.638176516735</v>
+        <v>8.166522331598378</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.05086977515601</v>
+        <v>20.87827848372864</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.68136410270254</v>
+        <v>8.325830935086254</v>
       </c>
       <c r="C7">
-        <v>8.276485155918531</v>
+        <v>5.402702615761214</v>
       </c>
       <c r="D7">
-        <v>4.426205138642643</v>
+        <v>4.603535095592431</v>
       </c>
       <c r="E7">
-        <v>26.02311733994001</v>
+        <v>14.9435950957804</v>
       </c>
       <c r="F7">
-        <v>17.21655815867534</v>
+        <v>23.20670893313944</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>12.84683158203528</v>
+        <v>19.82701980295097</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.86369676278748</v>
+        <v>8.247275080429475</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.04931413496042</v>
+        <v>20.8525494055709</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.82601122705086</v>
+        <v>8.809199737762382</v>
       </c>
       <c r="C8">
-        <v>8.943286856241215</v>
+        <v>5.73648514769413</v>
       </c>
       <c r="D8">
-        <v>4.61372523868783</v>
+        <v>4.674459349130019</v>
       </c>
       <c r="E8">
-        <v>28.81600522253776</v>
+        <v>16.16044781658172</v>
       </c>
       <c r="F8">
-        <v>17.66877419761623</v>
+        <v>23.16392035400795</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>12.60824383057536</v>
+        <v>19.69459622013085</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.81095389694658</v>
+        <v>8.596553438773929</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.07790247810947</v>
+        <v>20.75092263419588</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.83744580590103</v>
+        <v>9.691932423644447</v>
       </c>
       <c r="C9">
-        <v>10.13052621696656</v>
+        <v>6.331634914449539</v>
       </c>
       <c r="D9">
-        <v>4.956769522813438</v>
+        <v>4.807074921353851</v>
       </c>
       <c r="E9">
-        <v>33.80218767844861</v>
+        <v>18.41992924820923</v>
       </c>
       <c r="F9">
-        <v>18.69612417016289</v>
+        <v>23.13824139689659</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>12.24948536151263</v>
+        <v>19.47033349738275</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.49313600949234</v>
+        <v>9.307098448307642</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.27435149980524</v>
+        <v>20.59479282944617</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.17423014673444</v>
+        <v>10.29481393373</v>
       </c>
       <c r="C10">
-        <v>10.92902733310063</v>
+        <v>6.730563384020052</v>
       </c>
       <c r="D10">
-        <v>5.19218616896029</v>
+        <v>4.900138274903615</v>
       </c>
       <c r="E10">
-        <v>37.18785137141799</v>
+        <v>20.05566072055843</v>
       </c>
       <c r="F10">
-        <v>19.53692164341028</v>
+        <v>23.15510123277694</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>12.06546455777084</v>
+        <v>19.32729116686438</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.62098014829978</v>
+        <v>9.874003388772795</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.51576481010679</v>
+        <v>20.50670758719942</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.75220206536923</v>
+        <v>10.55818291148871</v>
       </c>
       <c r="C11">
-        <v>11.27641883333611</v>
+        <v>6.903392463923494</v>
       </c>
       <c r="D11">
-        <v>5.295403033643171</v>
+        <v>4.941440531158698</v>
       </c>
       <c r="E11">
-        <v>38.67306467072071</v>
+        <v>20.75765700656305</v>
       </c>
       <c r="F11">
-        <v>19.93807894341743</v>
+        <v>23.17055239400391</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>12.00220682401472</v>
+        <v>19.26696396349264</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.1106634583957</v>
+        <v>10.11979037569407</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.64902703641121</v>
+        <v>20.47247939673865</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.96677852231816</v>
+        <v>10.65628235904914</v>
       </c>
       <c r="C12">
-        <v>11.40571225738675</v>
+        <v>6.96757359969664</v>
       </c>
       <c r="D12">
-        <v>5.333912150628898</v>
+        <v>4.956925200635744</v>
       </c>
       <c r="E12">
-        <v>39.22806530073891</v>
+        <v>21.01746595111139</v>
       </c>
       <c r="F12">
-        <v>20.0926717370543</v>
+        <v>23.17752211719499</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>11.98148331394168</v>
+        <v>19.24480437313424</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.29275212227332</v>
+        <v>10.21109032953148</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.70304675844109</v>
+        <v>20.460363036455</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.92075559620692</v>
+        <v>10.63522846765248</v>
       </c>
       <c r="C13">
-        <v>11.37796648214805</v>
+        <v>6.953807638903979</v>
       </c>
       <c r="D13">
-        <v>5.32564446575117</v>
+        <v>4.953597330320538</v>
       </c>
       <c r="E13">
-        <v>39.10885762076428</v>
+        <v>20.96177874503634</v>
       </c>
       <c r="F13">
-        <v>20.05925801502488</v>
+        <v>23.17597132618081</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>11.98579797881236</v>
+        <v>19.24954632428772</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.25368437854539</v>
+        <v>10.19150664301201</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.69125158133826</v>
+        <v>20.4629348475804</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.76994107143627</v>
+        <v>10.56628668345236</v>
       </c>
       <c r="C14">
-        <v>11.28710093294374</v>
+        <v>6.908698160176597</v>
       </c>
       <c r="D14">
-        <v>5.298582866738547</v>
+        <v>4.942717622320703</v>
       </c>
       <c r="E14">
-        <v>38.71887060897897</v>
+        <v>20.7791521427036</v>
       </c>
       <c r="F14">
-        <v>19.95074359107824</v>
+        <v>23.1711033830428</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>12.0004354086835</v>
+        <v>19.26512713510412</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.12571087315477</v>
+        <v>10.12733741125112</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.65339895538311</v>
+        <v>20.47146561132649</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.67700573851816</v>
+        <v>10.52384340062427</v>
       </c>
       <c r="C15">
-        <v>11.23115018292589</v>
+        <v>6.880901905911705</v>
       </c>
       <c r="D15">
-        <v>5.281931190906218</v>
+        <v>4.936033017639938</v>
       </c>
       <c r="E15">
-        <v>38.47904156149558</v>
+        <v>20.66650483313114</v>
       </c>
       <c r="F15">
-        <v>19.88462488969287</v>
+        <v>23.16826728518236</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>12.00983093847231</v>
+        <v>19.27476012784855</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.04688867581184</v>
+        <v>10.08779993137678</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.63068166933362</v>
+        <v>20.47680115365668</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.13585551819586</v>
+        <v>10.2773771196775</v>
       </c>
       <c r="C16">
-        <v>10.90600728613991</v>
+        <v>6.719092630259647</v>
       </c>
       <c r="D16">
-        <v>5.185360989923979</v>
+        <v>4.897417681597536</v>
       </c>
       <c r="E16">
-        <v>37.08972376444994</v>
+        <v>20.00893915501725</v>
       </c>
       <c r="F16">
-        <v>19.51108048910097</v>
+        <v>23.15424805405296</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>12.07003448583445</v>
+        <v>19.33132938920166</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.58850903657648</v>
+        <v>9.857694075128069</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.50754347419398</v>
+        <v>20.50906247384037</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.79618766354637</v>
+        <v>10.12333886176422</v>
       </c>
       <c r="C17">
-        <v>10.70249636403789</v>
+        <v>6.617596396422444</v>
       </c>
       <c r="D17">
-        <v>5.12511098679155</v>
+        <v>4.873458784065241</v>
       </c>
       <c r="E17">
-        <v>36.22367840395617</v>
+        <v>19.59478306624211</v>
       </c>
       <c r="F17">
-        <v>19.2867022849741</v>
+        <v>23.14764096899667</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>12.11240591915644</v>
+        <v>19.36724976252177</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.30132934549039</v>
+        <v>9.713406042121685</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.43813967010381</v>
+        <v>20.53035371951638</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.59797976508719</v>
+        <v>10.03371892567439</v>
       </c>
       <c r="C18">
-        <v>10.58394833709744</v>
+        <v>6.558405743543526</v>
       </c>
       <c r="D18">
-        <v>5.090093017688414</v>
+        <v>4.859581461735556</v>
       </c>
       <c r="E18">
-        <v>35.72034887044578</v>
+        <v>19.35260624838605</v>
       </c>
       <c r="F18">
-        <v>19.15940343725061</v>
+        <v>23.14457328220695</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>12.13868352901521</v>
+        <v>19.38835651086774</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.13394884629621</v>
+        <v>9.629278020698399</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.40041618432079</v>
+        <v>20.5431494936496</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.53038098110234</v>
+        <v>10.00320198771016</v>
       </c>
       <c r="C19">
-        <v>10.54355287864411</v>
+        <v>6.538225969186577</v>
       </c>
       <c r="D19">
-        <v>5.078174696980043</v>
+        <v>4.854866434248412</v>
       </c>
       <c r="E19">
-        <v>35.54902258646083</v>
+        <v>19.26992730444488</v>
       </c>
       <c r="F19">
-        <v>19.11660428206556</v>
+        <v>23.14366041652268</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>12.14789965520717</v>
+        <v>19.39557945816313</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.0768980689144</v>
+        <v>9.600599513772842</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.38801505493693</v>
+        <v>20.54757616313725</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.83263950938809</v>
+        <v>10.13984270918383</v>
       </c>
       <c r="C20">
-        <v>10.72431492728744</v>
+        <v>6.628485129812839</v>
       </c>
       <c r="D20">
-        <v>5.13156250018972</v>
+        <v>4.876019320084162</v>
       </c>
       <c r="E20">
-        <v>36.31640557838095</v>
+        <v>19.63928083139394</v>
       </c>
       <c r="F20">
-        <v>19.31040586747725</v>
+        <v>23.14826848775427</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>12.10769603959474</v>
+        <v>19.36337976623182</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.3321279525716</v>
+        <v>9.728883728215918</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.4452992145145</v>
+        <v>20.52803031014968</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.81435495716709</v>
+        <v>10.58658135401009</v>
       </c>
       <c r="C21">
-        <v>11.31385134915031</v>
+        <v>6.921982410150138</v>
       </c>
       <c r="D21">
-        <v>5.306547314451814</v>
+        <v>4.94591753436077</v>
       </c>
       <c r="E21">
-        <v>38.83361644406318</v>
+        <v>20.83295717116989</v>
       </c>
       <c r="F21">
-        <v>19.98254405978601</v>
+        <v>23.17250286328959</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>11.99604595098443</v>
+        <v>19.26053205874485</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.16339034317023</v>
+        <v>10.14623386586786</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.66441922171839</v>
+        <v>20.46893694436726</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.43098986305564</v>
+        <v>10.86901006672598</v>
       </c>
       <c r="C22">
-        <v>11.68601399055012</v>
+        <v>7.106416010773396</v>
       </c>
       <c r="D22">
-        <v>5.417540162881334</v>
+        <v>4.990690015025917</v>
       </c>
       <c r="E22">
-        <v>40.43578831932446</v>
+        <v>21.57800907555512</v>
       </c>
       <c r="F22">
-        <v>20.43747142702944</v>
+        <v>23.19486103952384</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>11.94205627103786</v>
+        <v>19.19730930848588</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.68719453067888</v>
+        <v>10.4086427676699</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.8284379904546</v>
+        <v>20.43524413119111</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.10414833494196</v>
+        <v>10.71916524691582</v>
       </c>
       <c r="C23">
-        <v>11.48857543426073</v>
+        <v>7.008662297335817</v>
       </c>
       <c r="D23">
-        <v>5.35861538263401</v>
+        <v>4.966879640749268</v>
       </c>
       <c r="E23">
-        <v>39.5844372001298</v>
+        <v>21.18356025048128</v>
       </c>
       <c r="F23">
-        <v>20.19323470954107</v>
+        <v>23.18233194334196</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>11.96903409273225</v>
+        <v>19.23068603544623</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.40940337131885</v>
+        <v>10.26954735900883</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.73893381639595</v>
+        <v>20.45277410366875</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.81616875425611</v>
+        <v>10.13238462021947</v>
       </c>
       <c r="C24">
-        <v>10.71445557468318</v>
+        <v>6.623564945442931</v>
       </c>
       <c r="D24">
-        <v>5.128646951340643</v>
+        <v>4.874862022114566</v>
       </c>
       <c r="E24">
-        <v>36.27450056728219</v>
+        <v>19.61917608125287</v>
       </c>
       <c r="F24">
-        <v>19.29968418497495</v>
+        <v>23.14798251000796</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>12.1098194245951</v>
+        <v>19.36512797238947</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.31821099610348</v>
+        <v>9.721889923330989</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.44205561556719</v>
+        <v>20.52907899455659</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.31818677321209</v>
+        <v>9.460773792683158</v>
       </c>
       <c r="C25">
-        <v>9.822316102905052</v>
+        <v>6.177232378862121</v>
       </c>
       <c r="D25">
-        <v>4.866783494890556</v>
+        <v>4.771936155038496</v>
       </c>
       <c r="E25">
-        <v>32.50371760334177</v>
+        <v>17.77999807161037</v>
       </c>
       <c r="F25">
-        <v>18.4030895264132</v>
+        <v>23.13892608037337</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>12.33357942279313</v>
+        <v>19.52719734360459</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.05701305694457</v>
+        <v>9.087862885637787</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.20497179684661</v>
+        <v>20.63237658057401</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.936014356752448</v>
+        <v>14.12035241250458</v>
       </c>
       <c r="C2">
-        <v>5.822997384038935</v>
+        <v>9.115853676679404</v>
       </c>
       <c r="D2">
-        <v>4.69325500866014</v>
+        <v>4.662929104456807</v>
       </c>
       <c r="E2">
-        <v>16.47667668692905</v>
+        <v>29.53879786918719</v>
       </c>
       <c r="F2">
-        <v>23.15625613623854</v>
+        <v>17.80078155533915</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>19.6611083466157</v>
+        <v>12.55053810938373</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.689240716366754</v>
+        <v>13.05582271223943</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.72629569191747</v>
+        <v>14.09471163310046</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.5634517970842</v>
+        <v>13.24897914942748</v>
       </c>
       <c r="C3">
-        <v>5.567647760220535</v>
+        <v>8.606258930414914</v>
       </c>
       <c r="D3">
-        <v>4.638264397795136</v>
+        <v>4.51839900163512</v>
       </c>
       <c r="E3">
-        <v>15.5442172489596</v>
+        <v>27.40475874501704</v>
       </c>
       <c r="F3">
-        <v>23.18289448938697</v>
+        <v>17.42858056030539</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>19.76091451388519</v>
+        <v>12.72584046377967</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.418152913604663</v>
+        <v>12.332383498524</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.80098525690403</v>
+        <v>14.05629736345605</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.327146427361857</v>
+        <v>12.68453588634346</v>
       </c>
       <c r="C4">
-        <v>5.403620833193349</v>
+        <v>8.278322811109206</v>
       </c>
       <c r="D4">
-        <v>4.603726679817777</v>
+        <v>4.42671571347589</v>
       </c>
       <c r="E4">
-        <v>14.94693422056099</v>
+        <v>26.03082160910766</v>
       </c>
       <c r="F4">
-        <v>23.20656156170801</v>
+        <v>17.21767565573753</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>19.82664799666077</v>
+        <v>12.84614180910487</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.248216453697529</v>
+        <v>11.8663096275465</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.85225484366284</v>
+        <v>14.04931470589848</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.229090050531916</v>
+        <v>12.44713614679264</v>
       </c>
       <c r="C5">
-        <v>5.335010840440932</v>
+        <v>8.140943553495006</v>
       </c>
       <c r="D5">
-        <v>4.589465623672242</v>
+        <v>4.388648962817022</v>
       </c>
       <c r="E5">
-        <v>14.6975833398294</v>
+        <v>25.45463777053182</v>
       </c>
       <c r="F5">
-        <v>23.21803850255876</v>
+        <v>17.13613183366629</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>19.85455235888398</v>
+        <v>12.89817481784006</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.178193129835098</v>
+        <v>11.67094310280158</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.87450258663557</v>
+        <v>14.05044725618997</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.212705956464303</v>
+        <v>12.4072707588127</v>
       </c>
       <c r="C6">
-        <v>5.323513157659692</v>
+        <v>8.117907264369583</v>
       </c>
       <c r="D6">
-        <v>4.587086543557889</v>
+        <v>4.382286499416581</v>
       </c>
       <c r="E6">
-        <v>14.65582819829871</v>
+        <v>25.35797053668562</v>
       </c>
       <c r="F6">
-        <v>23.22005471693912</v>
+        <v>17.12285614810174</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>19.85925328745865</v>
+        <v>12.90699174075588</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.166522331598378</v>
+        <v>11.638176516735</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.87827848372864</v>
+        <v>14.05086977515601</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.325830935086254</v>
+        <v>12.68136410270251</v>
       </c>
       <c r="C7">
-        <v>5.402702615761214</v>
+        <v>8.276485155918529</v>
       </c>
       <c r="D7">
-        <v>4.603535095592431</v>
+        <v>4.426205138642799</v>
       </c>
       <c r="E7">
-        <v>14.9435950957804</v>
+        <v>26.02311733993997</v>
       </c>
       <c r="F7">
-        <v>23.20670893313944</v>
+        <v>17.21655815867539</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>19.82701980295097</v>
+        <v>12.84683158203537</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.247275080429475</v>
+        <v>11.86369676278743</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.8525494055709</v>
+        <v>14.04931413496049</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.809199737762382</v>
+        <v>13.82601122705088</v>
       </c>
       <c r="C8">
-        <v>5.73648514769413</v>
+        <v>8.943286856241187</v>
       </c>
       <c r="D8">
-        <v>4.674459349130019</v>
+        <v>4.61372523868789</v>
       </c>
       <c r="E8">
-        <v>16.16044781658172</v>
+        <v>28.81600522253771</v>
       </c>
       <c r="F8">
-        <v>23.16392035400795</v>
+        <v>17.66877419761626</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>19.69459622013085</v>
+        <v>12.60824383057541</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.596553438773929</v>
+        <v>12.81095389694658</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.75092263419588</v>
+        <v>14.07790247810954</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.691932423644447</v>
+        <v>15.83744580590103</v>
       </c>
       <c r="C9">
-        <v>6.331634914449539</v>
+        <v>10.13052621696638</v>
       </c>
       <c r="D9">
-        <v>4.807074921353851</v>
+        <v>4.956769522813432</v>
       </c>
       <c r="E9">
-        <v>18.41992924820923</v>
+        <v>33.80218767844862</v>
       </c>
       <c r="F9">
-        <v>23.13824139689659</v>
+        <v>18.69612417016291</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>19.47033349738275</v>
+        <v>12.24948536151263</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.307098448307642</v>
+        <v>14.49313600949225</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.59479282944617</v>
+        <v>14.2743514998053</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.29481393373</v>
+        <v>17.17423014673451</v>
       </c>
       <c r="C10">
-        <v>6.730563384020052</v>
+        <v>10.92902733310045</v>
       </c>
       <c r="D10">
-        <v>4.900138274903615</v>
+        <v>5.192186168960182</v>
       </c>
       <c r="E10">
-        <v>20.05566072055843</v>
+        <v>37.18785137141809</v>
       </c>
       <c r="F10">
-        <v>23.15510123277694</v>
+        <v>19.53692164341022</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>19.32729116686438</v>
+        <v>12.06546455777069</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.874003388772795</v>
+        <v>15.62098014829981</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.50670758719942</v>
+        <v>14.51576481010668</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.55818291148871</v>
+        <v>17.75220206536928</v>
       </c>
       <c r="C11">
-        <v>6.903392463923494</v>
+        <v>11.27641883333616</v>
       </c>
       <c r="D11">
-        <v>4.941440531158698</v>
+        <v>5.295403033643308</v>
       </c>
       <c r="E11">
-        <v>20.75765700656305</v>
+        <v>38.67306467072081</v>
       </c>
       <c r="F11">
-        <v>23.17055239400391</v>
+        <v>19.93807894341734</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>19.26696396349264</v>
+        <v>12.00220682401463</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.11979037569407</v>
+        <v>16.11066345839574</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.47247939673865</v>
+        <v>14.64902703641113</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.65628235904914</v>
+        <v>17.96677852231816</v>
       </c>
       <c r="C12">
-        <v>6.96757359969664</v>
+        <v>11.40571225738683</v>
       </c>
       <c r="D12">
-        <v>4.956925200635744</v>
+        <v>5.333912150628928</v>
       </c>
       <c r="E12">
-        <v>21.01746595111139</v>
+        <v>39.22806530073885</v>
       </c>
       <c r="F12">
-        <v>23.17752211719499</v>
+        <v>20.09267173705436</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>19.24480437313424</v>
+        <v>11.98148331394184</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.21109032953148</v>
+        <v>16.29275212227333</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.460363036455</v>
+        <v>14.70304675844117</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.63522846765248</v>
+        <v>17.92075559620685</v>
       </c>
       <c r="C13">
-        <v>6.953807638903979</v>
+        <v>11.37796648214801</v>
       </c>
       <c r="D13">
-        <v>4.953597330320538</v>
+        <v>5.325644465751275</v>
       </c>
       <c r="E13">
-        <v>20.96177874503634</v>
+        <v>39.10885762076433</v>
       </c>
       <c r="F13">
-        <v>23.17597132618081</v>
+        <v>20.05925801502491</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>19.24954632428772</v>
+        <v>11.98579797881242</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.19150664301201</v>
+        <v>16.25368437854533</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.4629348475804</v>
+        <v>14.69125158133829</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.56628668345236</v>
+        <v>17.76994107143621</v>
       </c>
       <c r="C14">
-        <v>6.908698160176597</v>
+        <v>11.28710093294381</v>
       </c>
       <c r="D14">
-        <v>4.942717622320703</v>
+        <v>5.29858286673859</v>
       </c>
       <c r="E14">
-        <v>20.7791521427036</v>
+        <v>38.71887060897899</v>
       </c>
       <c r="F14">
-        <v>23.1711033830428</v>
+        <v>19.9507435910782</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>19.26512713510412</v>
+        <v>12.0004354086835</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.12733741125112</v>
+        <v>16.12571087315477</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.47146561132649</v>
+        <v>14.65339895538308</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.52384340062427</v>
+        <v>17.67700573851815</v>
       </c>
       <c r="C15">
-        <v>6.880901905911705</v>
+        <v>11.23115018292586</v>
       </c>
       <c r="D15">
-        <v>4.936033017639938</v>
+        <v>5.281931190906236</v>
       </c>
       <c r="E15">
-        <v>20.66650483313114</v>
+        <v>38.47904156149549</v>
       </c>
       <c r="F15">
-        <v>23.16826728518236</v>
+        <v>19.88462488969294</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>19.27476012784855</v>
+        <v>12.00983093847241</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.08779993137678</v>
+        <v>16.04688867581178</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.47680115365668</v>
+        <v>14.63068166933371</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.2773771196775</v>
+        <v>17.13585551819584</v>
       </c>
       <c r="C16">
-        <v>6.719092630259647</v>
+        <v>10.90600728613989</v>
       </c>
       <c r="D16">
-        <v>4.897417681597536</v>
+        <v>5.185360989924087</v>
       </c>
       <c r="E16">
-        <v>20.00893915501725</v>
+        <v>37.08972376444991</v>
       </c>
       <c r="F16">
-        <v>23.15424805405296</v>
+        <v>19.51108048910096</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>19.33132938920166</v>
+        <v>12.07003448583448</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.857694075128069</v>
+        <v>15.58850903657649</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.50906247384037</v>
+        <v>14.50754347419398</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.12333886176422</v>
+        <v>16.79618766354637</v>
       </c>
       <c r="C17">
-        <v>6.617596396422444</v>
+        <v>10.70249636403787</v>
       </c>
       <c r="D17">
-        <v>4.873458784065241</v>
+        <v>5.125110986791639</v>
       </c>
       <c r="E17">
-        <v>19.59478306624211</v>
+        <v>36.22367840395616</v>
       </c>
       <c r="F17">
-        <v>23.14764096899667</v>
+        <v>19.28670228497407</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>19.36724976252177</v>
+        <v>12.11240591915644</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.713406042121685</v>
+        <v>15.30132934549038</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.53035371951638</v>
+        <v>14.43813967010381</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.03371892567439</v>
+        <v>16.59797976508719</v>
       </c>
       <c r="C18">
-        <v>6.558405743543526</v>
+        <v>10.58394833709741</v>
       </c>
       <c r="D18">
-        <v>4.859581461735556</v>
+        <v>5.090093017688511</v>
       </c>
       <c r="E18">
-        <v>19.35260624838605</v>
+        <v>35.72034887044583</v>
       </c>
       <c r="F18">
-        <v>23.14457328220695</v>
+        <v>19.15940343725059</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>19.38835651086774</v>
+        <v>12.13868352901522</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.629278020698399</v>
+        <v>15.13394884629621</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.5431494936496</v>
+        <v>14.40041618432079</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.00320198771016</v>
+        <v>16.53038098110233</v>
       </c>
       <c r="C19">
-        <v>6.538225969186577</v>
+        <v>10.54355287864415</v>
       </c>
       <c r="D19">
-        <v>4.854866434248412</v>
+        <v>5.078174696980136</v>
       </c>
       <c r="E19">
-        <v>19.26992730444488</v>
+        <v>35.54902258646072</v>
       </c>
       <c r="F19">
-        <v>23.14366041652268</v>
+        <v>19.11660428206559</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>19.39557945816313</v>
+        <v>12.14789965520725</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.600599513772842</v>
+        <v>15.07689806891441</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.54757616313725</v>
+        <v>14.38801505493699</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.13984270918383</v>
+        <v>16.83263950938811</v>
       </c>
       <c r="C20">
-        <v>6.628485129812839</v>
+        <v>10.72431492728744</v>
       </c>
       <c r="D20">
-        <v>4.876019320084162</v>
+        <v>5.131562500189613</v>
       </c>
       <c r="E20">
-        <v>19.63928083139394</v>
+        <v>36.31640557838085</v>
       </c>
       <c r="F20">
-        <v>23.14826848775427</v>
+        <v>19.3104058674773</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>19.36337976623182</v>
+        <v>12.10769603959475</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.728883728215918</v>
+        <v>15.33212795257161</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.52803031014968</v>
+        <v>14.44529921451453</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.58658135401009</v>
+        <v>17.81435495716711</v>
       </c>
       <c r="C21">
-        <v>6.921982410150138</v>
+        <v>11.31385134915031</v>
       </c>
       <c r="D21">
-        <v>4.94591753436077</v>
+        <v>5.306547314451845</v>
       </c>
       <c r="E21">
-        <v>20.83295717116989</v>
+        <v>38.83361644406317</v>
       </c>
       <c r="F21">
-        <v>23.17250286328959</v>
+        <v>19.982544059786</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>19.26053205874485</v>
+        <v>11.99604595098439</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.14623386586786</v>
+        <v>16.16339034317024</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.46893694436726</v>
+        <v>14.66441922171839</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.86901006672598</v>
+        <v>18.43098986305559</v>
       </c>
       <c r="C22">
-        <v>7.106416010773396</v>
+        <v>11.68601399055012</v>
       </c>
       <c r="D22">
-        <v>4.990690015025917</v>
+        <v>5.41754016288134</v>
       </c>
       <c r="E22">
-        <v>21.57800907555512</v>
+        <v>40.4357883193244</v>
       </c>
       <c r="F22">
-        <v>23.19486103952384</v>
+        <v>20.4374714270294</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>19.19730930848588</v>
+        <v>11.94205627103785</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.4086427676699</v>
+        <v>16.68719453067887</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.43524413119111</v>
+        <v>14.82843799045458</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.71916524691582</v>
+        <v>18.10414833494194</v>
       </c>
       <c r="C23">
-        <v>7.008662297335817</v>
+        <v>11.4885754342607</v>
       </c>
       <c r="D23">
-        <v>4.966879640749268</v>
+        <v>5.358615382633918</v>
       </c>
       <c r="E23">
-        <v>21.18356025048128</v>
+        <v>39.58443720012983</v>
       </c>
       <c r="F23">
-        <v>23.18233194334196</v>
+        <v>20.19323470954108</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>19.23068603544623</v>
+        <v>11.96903409273222</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.26954735900883</v>
+        <v>16.40940337131882</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.45277410366875</v>
+        <v>14.73893381639595</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.13238462021947</v>
+        <v>16.81616875425619</v>
       </c>
       <c r="C24">
-        <v>6.623564945442931</v>
+        <v>10.7144555746831</v>
       </c>
       <c r="D24">
-        <v>4.874862022114566</v>
+        <v>5.128646951340541</v>
       </c>
       <c r="E24">
-        <v>19.61917608125287</v>
+        <v>36.27450056728216</v>
       </c>
       <c r="F24">
-        <v>23.14798251000796</v>
+        <v>19.29968418497495</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>19.36512797238947</v>
+        <v>12.10981942459504</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.721889923330989</v>
+        <v>15.3182109961035</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.52907899455659</v>
+        <v>14.44205561556715</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.460773792683158</v>
+        <v>15.31818677321208</v>
       </c>
       <c r="C25">
-        <v>6.177232378862121</v>
+        <v>9.822316102905038</v>
       </c>
       <c r="D25">
-        <v>4.771936155038496</v>
+        <v>4.866783494890696</v>
       </c>
       <c r="E25">
-        <v>17.77999807161037</v>
+        <v>32.50371760334183</v>
       </c>
       <c r="F25">
-        <v>23.13892608037337</v>
+        <v>18.4030895264132</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>19.52719734360459</v>
+        <v>12.33357942279319</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.087862885637787</v>
+        <v>14.05701305694456</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.63237658057401</v>
+        <v>14.20497179684665</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.12035241250458</v>
+        <v>13.08684975758264</v>
       </c>
       <c r="C2">
-        <v>9.115853676679404</v>
+        <v>9.220262518296952</v>
       </c>
       <c r="D2">
-        <v>4.662929104456807</v>
+        <v>4.926816978864637</v>
       </c>
       <c r="E2">
-        <v>29.53879786918719</v>
+        <v>28.54926226329864</v>
       </c>
       <c r="F2">
-        <v>17.80078155533915</v>
+        <v>19.03303250034527</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>2.71153125071955</v>
       </c>
       <c r="I2">
-        <v>12.55053810938373</v>
+        <v>2.692518010630161</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>13.05582271223943</v>
+        <v>13.98692519440551</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.21262847832588</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.09471163310046</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.16124712214443</v>
+      </c>
+      <c r="Q2">
+        <v>15.40273994426027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.24897914942748</v>
+        <v>12.2452455442911</v>
       </c>
       <c r="C3">
-        <v>8.606258930414914</v>
+        <v>8.711862609562106</v>
       </c>
       <c r="D3">
-        <v>4.51839900163512</v>
+        <v>4.755439484052179</v>
       </c>
       <c r="E3">
-        <v>27.40475874501704</v>
+        <v>26.69793552514342</v>
       </c>
       <c r="F3">
-        <v>17.42858056030539</v>
+        <v>18.57486771927493</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>2.485045361952507</v>
       </c>
       <c r="I3">
-        <v>12.72584046377967</v>
+        <v>2.554578842164794</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>12.332383498524</v>
+        <v>13.99953284714318</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.50827877130487</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.05629736345605</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.29976070360829</v>
+      </c>
+      <c r="Q3">
+        <v>15.23994873651826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.68453588634346</v>
+        <v>11.69556386031981</v>
       </c>
       <c r="C4">
-        <v>8.278322811109206</v>
+        <v>8.387583990172836</v>
       </c>
       <c r="D4">
-        <v>4.42671571347589</v>
+        <v>4.646344113837042</v>
       </c>
       <c r="E4">
-        <v>26.03082160910766</v>
+        <v>25.49594634097624</v>
       </c>
       <c r="F4">
-        <v>17.21767565573753</v>
+        <v>18.29555438722201</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>2.340970831944147</v>
       </c>
       <c r="I4">
-        <v>12.84614180910487</v>
+        <v>2.476233202745232</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>11.8663096275465</v>
+        <v>14.01070845701027</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.05258476147009</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.04931470589848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.3862891905553</v>
+      </c>
+      <c r="Q4">
+        <v>15.1443330482034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.44713614679264</v>
+        <v>11.45812512456473</v>
       </c>
       <c r="C5">
-        <v>8.140943553495006</v>
+        <v>8.260462639898961</v>
       </c>
       <c r="D5">
-        <v>4.388648962817022</v>
+        <v>4.60212406562635</v>
       </c>
       <c r="E5">
-        <v>25.45463777053182</v>
+        <v>24.98949512811604</v>
       </c>
       <c r="F5">
-        <v>17.13613183366629</v>
+        <v>18.17551906247936</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>2.280843257336561</v>
       </c>
       <c r="I5">
-        <v>12.89817481784006</v>
+        <v>2.517667062987781</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>11.67094310280158</v>
+        <v>14.01107253166222</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.86088434530635</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.05044725618997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.42161941326121</v>
+      </c>
+      <c r="Q5">
+        <v>15.10137940151611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.4072707588127</v>
+        <v>11.41190595814376</v>
       </c>
       <c r="C6">
-        <v>8.117907264369583</v>
+        <v>8.248992946415163</v>
       </c>
       <c r="D6">
-        <v>4.382286499416581</v>
+        <v>4.596172380191244</v>
       </c>
       <c r="E6">
-        <v>25.35797053668562</v>
+        <v>24.90416776230668</v>
       </c>
       <c r="F6">
-        <v>17.12285614810174</v>
+        <v>18.14726376735485</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>2.270613951273825</v>
       </c>
       <c r="I6">
-        <v>12.90699174075588</v>
+        <v>2.528778505188324</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>11.638176516735</v>
+        <v>14.00504182513842</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.82843213842603</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.05086977515601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.42713159049443</v>
+      </c>
+      <c r="Q6">
+        <v>15.08810726511738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.68136410270251</v>
+        <v>11.67561018712617</v>
       </c>
       <c r="C7">
-        <v>8.276485155918529</v>
+        <v>8.412184448478753</v>
       </c>
       <c r="D7">
-        <v>4.426205138642799</v>
+        <v>4.649672882377763</v>
       </c>
       <c r="E7">
-        <v>26.02311733993997</v>
+        <v>25.48854626296592</v>
       </c>
       <c r="F7">
-        <v>17.21655815867539</v>
+        <v>18.27127397095577</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>2.339715449605789</v>
       </c>
       <c r="I7">
-        <v>12.84683158203537</v>
+        <v>2.48783907168509</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>11.86369676278743</v>
+        <v>13.99395195174751</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.04929042323036</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.04931413496049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.38578423850147</v>
+      </c>
+      <c r="Q7">
+        <v>15.12687234505361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.82601122705088</v>
+        <v>12.78294756189851</v>
       </c>
       <c r="C8">
-        <v>8.943286856241187</v>
+        <v>9.080135177400763</v>
       </c>
       <c r="D8">
-        <v>4.61372523868789</v>
+        <v>4.873588044686947</v>
       </c>
       <c r="E8">
-        <v>28.81600522253771</v>
+        <v>27.92367022325604</v>
       </c>
       <c r="F8">
-        <v>17.66877419761626</v>
+        <v>18.84563610967046</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>2.633904806011716</v>
       </c>
       <c r="I8">
-        <v>12.60824383057541</v>
+        <v>2.64827513482777</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>12.81095389694658</v>
+        <v>13.96845981522999</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.97371474057218</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.07790247810954</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.20763871771261</v>
+      </c>
+      <c r="Q8">
+        <v>15.32372572180799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.83744580590103</v>
+        <v>14.72075755764384</v>
       </c>
       <c r="C9">
-        <v>10.13052621696638</v>
+        <v>10.24930312159463</v>
       </c>
       <c r="D9">
-        <v>4.956769522813432</v>
+        <v>5.274163984044942</v>
       </c>
       <c r="E9">
-        <v>33.80218767844862</v>
+        <v>32.18391514572295</v>
       </c>
       <c r="F9">
-        <v>18.69612417016291</v>
+        <v>20.02159681987854</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>3.17266862777201</v>
       </c>
       <c r="I9">
-        <v>12.24948536151263</v>
+        <v>2.977038228637409</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>14.49313600949225</v>
+        <v>13.97694199667612</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.60158424721025</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.2743514998053</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.8709249618174</v>
+      </c>
+      <c r="Q9">
+        <v>15.77404352549093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.17423014673451</v>
+        <v>15.95429894438188</v>
       </c>
       <c r="C10">
-        <v>10.92902733310045</v>
+        <v>11.01233602693658</v>
       </c>
       <c r="D10">
-        <v>5.192186168960182</v>
+        <v>5.571817543123639</v>
       </c>
       <c r="E10">
-        <v>37.18785137141809</v>
+        <v>34.12430945864936</v>
       </c>
       <c r="F10">
-        <v>19.53692164341022</v>
+        <v>20.7659682233496</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>3.511239691707321</v>
       </c>
       <c r="I10">
-        <v>12.06546455777069</v>
+        <v>3.203157889678835</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>15.62098014829981</v>
+        <v>13.9417452033851</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.64978943543485</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.51576481010668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.63146530436631</v>
+      </c>
+      <c r="Q10">
+        <v>16.03444922905944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.75220206536928</v>
+        <v>16.24026965830643</v>
       </c>
       <c r="C11">
-        <v>11.27641883333616</v>
+        <v>10.99376747146017</v>
       </c>
       <c r="D11">
-        <v>5.295403033643308</v>
+        <v>5.901394417719338</v>
       </c>
       <c r="E11">
-        <v>38.67306467072081</v>
+        <v>27.47110434772182</v>
       </c>
       <c r="F11">
-        <v>19.93807894341734</v>
+        <v>20.12379434581471</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.946336263901915</v>
       </c>
       <c r="I11">
-        <v>12.00220682401463</v>
+        <v>3.257689585267668</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>16.11066345839574</v>
+        <v>13.44925409543805</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.82624372390128</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.64902703641113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.55127586838866</v>
+      </c>
+      <c r="Q11">
+        <v>15.40423359511995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.96677852231816</v>
+        <v>16.25280515248261</v>
       </c>
       <c r="C12">
-        <v>11.40571225738683</v>
+        <v>10.79597611105127</v>
       </c>
       <c r="D12">
-        <v>5.333912150628928</v>
+        <v>6.116343642775371</v>
       </c>
       <c r="E12">
-        <v>39.22806530073885</v>
+        <v>21.44698892170221</v>
       </c>
       <c r="F12">
-        <v>20.09267173705436</v>
+        <v>19.44035952572725</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.865928013356221</v>
       </c>
       <c r="I12">
-        <v>11.98148331394184</v>
+        <v>3.258182056651191</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>16.29275212227333</v>
+        <v>13.06447154140221</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.76549688104414</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.70304675844117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.5453658743558</v>
+      </c>
+      <c r="Q12">
+        <v>14.83167300683954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.92075559620685</v>
+        <v>16.03740521797425</v>
       </c>
       <c r="C13">
-        <v>11.37796648214801</v>
+        <v>10.47610298110725</v>
       </c>
       <c r="D13">
-        <v>5.325644465751275</v>
+        <v>6.264632816276642</v>
       </c>
       <c r="E13">
-        <v>39.10885762076433</v>
+        <v>15.38436015492668</v>
       </c>
       <c r="F13">
-        <v>20.05925801502491</v>
+        <v>18.63935432902708</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.982899485398007</v>
       </c>
       <c r="I13">
-        <v>11.98579797881242</v>
+        <v>3.221104395293191</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>16.25368437854533</v>
+        <v>12.7141067828408</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.51689187255825</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.69125158133829</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.59176013178222</v>
+      </c>
+      <c r="Q13">
+        <v>14.23991986248566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.76994107143621</v>
+        <v>15.7771724377275</v>
       </c>
       <c r="C14">
-        <v>11.28710093294381</v>
+        <v>10.20109635914085</v>
       </c>
       <c r="D14">
-        <v>5.29858286673859</v>
+        <v>6.34062489978104</v>
       </c>
       <c r="E14">
-        <v>38.71887060897899</v>
+        <v>11.11626691349142</v>
       </c>
       <c r="F14">
-        <v>19.9507435910782</v>
+        <v>18.01446802678203</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.836195761658683</v>
       </c>
       <c r="I14">
-        <v>12.0004354086835</v>
+        <v>3.179747387031674</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>16.12571087315477</v>
+        <v>12.48263264535137</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.25542149286334</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.65339895538308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>11.64778473281358</v>
+      </c>
+      <c r="Q14">
+        <v>13.81306907450345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.67700573851815</v>
+        <v>15.6585211359314</v>
       </c>
       <c r="C15">
-        <v>11.23115018292586</v>
+        <v>10.11409838641022</v>
       </c>
       <c r="D15">
-        <v>5.281931190906236</v>
+        <v>6.346207835575511</v>
       </c>
       <c r="E15">
-        <v>38.47904156149549</v>
+        <v>10.06961916273214</v>
       </c>
       <c r="F15">
-        <v>19.88462488969294</v>
+        <v>17.83085610898499</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.032618020187282</v>
       </c>
       <c r="I15">
-        <v>12.00983093847241</v>
+        <v>3.162289055135162</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>16.04688867581178</v>
+        <v>12.42912630178874</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.14986587471468</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.63068166933371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.67126369684314</v>
+      </c>
+      <c r="Q15">
+        <v>13.70119924458504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.13585551819584</v>
+        <v>15.17507226241054</v>
       </c>
       <c r="C16">
-        <v>10.90600728613989</v>
+        <v>9.857506595517892</v>
       </c>
       <c r="D16">
-        <v>5.185360989924087</v>
+        <v>6.200692804069182</v>
       </c>
       <c r="E16">
-        <v>37.08972376444991</v>
+        <v>9.980255023303819</v>
       </c>
       <c r="F16">
-        <v>19.51108048910096</v>
+        <v>17.63199554064759</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.76239872888232</v>
       </c>
       <c r="I16">
-        <v>12.07003448583448</v>
+        <v>3.076493873842678</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>15.58850903657649</v>
+        <v>12.50698408771947</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.75411159859762</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.50754347419398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.75423004709029</v>
+      </c>
+      <c r="Q16">
+        <v>13.69178618372537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.79618766354637</v>
+        <v>14.94034228178939</v>
       </c>
       <c r="C17">
-        <v>10.70249636403787</v>
+        <v>9.809960812227537</v>
       </c>
       <c r="D17">
-        <v>5.125110986791639</v>
+        <v>6.045550797308479</v>
       </c>
       <c r="E17">
-        <v>36.22367840395616</v>
+        <v>12.25822363921438</v>
       </c>
       <c r="F17">
-        <v>19.28670228497407</v>
+        <v>17.82068414504299</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>6.051370686398369</v>
       </c>
       <c r="I17">
-        <v>12.11240591915644</v>
+        <v>3.032216885589288</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>15.30132934549038</v>
+        <v>12.68835859296104</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.58929445442466</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.43813967010381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>11.78966232756635</v>
+      </c>
+      <c r="Q17">
+        <v>13.91333074047071</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.59797976508719</v>
+        <v>14.91364225146342</v>
       </c>
       <c r="C18">
-        <v>10.58394833709741</v>
+        <v>9.927368558802526</v>
       </c>
       <c r="D18">
-        <v>5.090093017688511</v>
+        <v>5.863428151675397</v>
       </c>
       <c r="E18">
-        <v>35.72034887044583</v>
+        <v>17.01342592298928</v>
       </c>
       <c r="F18">
-        <v>19.15940343725059</v>
+        <v>18.3751540241524</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.952860744352262</v>
       </c>
       <c r="I18">
-        <v>12.13868352901522</v>
+        <v>3.018041488228032</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>15.13394884629621</v>
+        <v>12.99239939867063</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.61320626787202</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.40041618432079</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.79191251815124</v>
+      </c>
+      <c r="Q18">
+        <v>14.36848465797167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.53038098110233</v>
+        <v>15.03407416539761</v>
       </c>
       <c r="C19">
-        <v>10.54355287864415</v>
+        <v>10.21473355073933</v>
       </c>
       <c r="D19">
-        <v>5.078174696980136</v>
+        <v>5.683522175553034</v>
       </c>
       <c r="E19">
-        <v>35.54902258646072</v>
+        <v>23.40576149993905</v>
       </c>
       <c r="F19">
-        <v>19.11660428206559</v>
+        <v>19.13699763226718</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.859217372795575</v>
       </c>
       <c r="I19">
-        <v>12.14789965520725</v>
+        <v>3.041020127350557</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>15.07689806891441</v>
+        <v>13.35053756382252</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.789684198928</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.38801505493699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.77470881223122</v>
+      </c>
+      <c r="Q19">
+        <v>14.95024188967643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.83263950938811</v>
+        <v>15.5989172827277</v>
       </c>
       <c r="C20">
-        <v>10.72431492728744</v>
+        <v>10.87978858636421</v>
       </c>
       <c r="D20">
-        <v>5.131562500189613</v>
+        <v>5.507181057839743</v>
       </c>
       <c r="E20">
-        <v>36.31640557838085</v>
+        <v>33.58559561377164</v>
       </c>
       <c r="F20">
-        <v>19.3104058674773</v>
+        <v>20.50285873930573</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>3.420019494016994</v>
       </c>
       <c r="I20">
-        <v>12.10769603959475</v>
+        <v>3.153006388319887</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>15.33212795257161</v>
+        <v>13.8962425596751</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.37881170775363</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.44529921451453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.6927033555485</v>
+      </c>
+      <c r="Q20">
+        <v>15.91163024476946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.81435495716711</v>
+        <v>16.54801897287184</v>
       </c>
       <c r="C21">
-        <v>11.31385134915031</v>
+        <v>11.49938616294561</v>
       </c>
       <c r="D21">
-        <v>5.306547314451845</v>
+        <v>5.691648919957629</v>
       </c>
       <c r="E21">
-        <v>38.83361644406317</v>
+        <v>36.34740164756523</v>
       </c>
       <c r="F21">
-        <v>19.982544059786</v>
+        <v>21.2577797945272</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>3.728106867305959</v>
       </c>
       <c r="I21">
-        <v>11.99604595098439</v>
+        <v>3.331171308599957</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>16.16339034317024</v>
+        <v>13.96874248995253</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.19763087724709</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.66441922171839</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.50842576376028</v>
+      </c>
+      <c r="Q21">
+        <v>16.25994237556649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.43098986305559</v>
+        <v>17.1419332691643</v>
       </c>
       <c r="C22">
-        <v>11.68601399055012</v>
+        <v>11.84449444198241</v>
       </c>
       <c r="D22">
-        <v>5.41754016288134</v>
+        <v>5.81529523932084</v>
       </c>
       <c r="E22">
-        <v>40.4357883193244</v>
+        <v>37.64282077716307</v>
       </c>
       <c r="F22">
-        <v>20.4374714270294</v>
+        <v>21.71786055404018</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>3.907845874842119</v>
       </c>
       <c r="I22">
-        <v>11.94205627103785</v>
+        <v>3.439360583954375</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>16.68719453067887</v>
+        <v>14.01456127710372</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.69570572718696</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.82843799045458</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.39019718110908</v>
+      </c>
+      <c r="Q22">
+        <v>16.46835951508426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.10414833494194</v>
+        <v>16.84193733765985</v>
       </c>
       <c r="C23">
-        <v>11.4885754342607</v>
+        <v>11.63772947767981</v>
       </c>
       <c r="D23">
-        <v>5.358615382633918</v>
+        <v>5.745655946673898</v>
       </c>
       <c r="E23">
-        <v>39.58443720012983</v>
+        <v>36.9570493021689</v>
       </c>
       <c r="F23">
-        <v>20.19323470954108</v>
+        <v>21.49532083691411</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>3.812670831534643</v>
       </c>
       <c r="I23">
-        <v>11.96903409273222</v>
+        <v>3.378436236436159</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>16.40940337131882</v>
+        <v>14.00896518911585</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.43245761143909</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.73893381639595</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.45357420530602</v>
+      </c>
+      <c r="Q23">
+        <v>16.37498293285371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.81616875425619</v>
+        <v>15.62756626883392</v>
       </c>
       <c r="C24">
-        <v>10.7144555746831</v>
+        <v>10.86779119011813</v>
       </c>
       <c r="D24">
-        <v>5.128646951340541</v>
+        <v>5.479994499248911</v>
       </c>
       <c r="E24">
-        <v>36.27450056728216</v>
+        <v>34.24777699937334</v>
       </c>
       <c r="F24">
-        <v>19.29968418497495</v>
+        <v>20.61435461528705</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>3.444200753399195</v>
       </c>
       <c r="I24">
-        <v>12.10981942459504</v>
+        <v>3.149172388773695</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>15.3182109961035</v>
+        <v>13.96651803113827</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.39222507399658</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.44205561556715</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.69497048499199</v>
+      </c>
+      <c r="Q24">
+        <v>16.00138176452795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.31818677321208</v>
+        <v>14.1988948665885</v>
       </c>
       <c r="C25">
-        <v>9.822316102905038</v>
+        <v>9.984591649717338</v>
       </c>
       <c r="D25">
-        <v>4.866783494890696</v>
+        <v>5.175941388275935</v>
       </c>
       <c r="E25">
-        <v>32.50371760334183</v>
+        <v>31.08536142415621</v>
       </c>
       <c r="F25">
-        <v>18.4030895264132</v>
+        <v>19.66509985647451</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>3.030237219978639</v>
       </c>
       <c r="I25">
-        <v>12.33357942279319</v>
+        <v>2.894535598391344</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>14.05701305694456</v>
+        <v>13.94144579554665</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.1801947318268</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.20497179684665</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.95981467247743</v>
+      </c>
+      <c r="Q25">
+        <v>15.61919233765501</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.08684975758264</v>
+        <v>12.86062799081638</v>
       </c>
       <c r="C2">
-        <v>9.220262518296952</v>
+        <v>9.555523974794049</v>
       </c>
       <c r="D2">
-        <v>4.926816978864637</v>
+        <v>4.968559592432249</v>
       </c>
       <c r="E2">
-        <v>28.54926226329864</v>
+        <v>28.57925489359951</v>
       </c>
       <c r="F2">
-        <v>19.03303250034527</v>
+        <v>18.52426204486878</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.71153125071955</v>
+        <v>2.733122826726882</v>
       </c>
       <c r="I2">
-        <v>2.692518010630161</v>
+        <v>2.762354922494047</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>13.98692519440551</v>
+        <v>13.49280936944896</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.85608487223607</v>
       </c>
       <c r="M2">
-        <v>12.21262847832588</v>
+        <v>8.144153591698906</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.22338535462739</v>
       </c>
       <c r="P2">
-        <v>12.16124712214443</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.40273994426027</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.07251689671307</v>
+      </c>
+      <c r="S2">
+        <v>14.98214802575654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.2452455442911</v>
+        <v>12.07177334849498</v>
       </c>
       <c r="C3">
-        <v>8.711862609562106</v>
+        <v>8.952270324198103</v>
       </c>
       <c r="D3">
-        <v>4.755439484052179</v>
+        <v>4.779368357117878</v>
       </c>
       <c r="E3">
-        <v>26.69793552514342</v>
+        <v>26.73461797313472</v>
       </c>
       <c r="F3">
-        <v>18.57486771927493</v>
+        <v>18.12166470710016</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.485045361952507</v>
+        <v>2.511107317613676</v>
       </c>
       <c r="I3">
-        <v>2.554578842164794</v>
+        <v>2.638005752233592</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>13.99953284714318</v>
+        <v>13.54143354954941</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.99174000751477</v>
       </c>
       <c r="M3">
-        <v>11.50827877130487</v>
+        <v>8.087905515674409</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.52389991737729</v>
       </c>
       <c r="P3">
-        <v>12.29976070360829</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.23994873651826</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.20226535923027</v>
+      </c>
+      <c r="S3">
+        <v>14.86101867994245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.69556386031981</v>
+        <v>11.55661362222463</v>
       </c>
       <c r="C4">
-        <v>8.387583990172836</v>
+        <v>8.56622021480673</v>
       </c>
       <c r="D4">
-        <v>4.646344113837042</v>
+        <v>4.658969762803792</v>
       </c>
       <c r="E4">
-        <v>25.49594634097624</v>
+        <v>25.53702560124697</v>
       </c>
       <c r="F4">
-        <v>18.29555438722201</v>
+        <v>17.87619682843228</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.340970831944147</v>
+        <v>2.369842818336252</v>
       </c>
       <c r="I4">
-        <v>2.476233202745232</v>
+        <v>2.559654117139468</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>14.01070845701027</v>
+        <v>13.57362111281205</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.07634871293816</v>
       </c>
       <c r="M4">
-        <v>11.05258476147009</v>
+        <v>8.073583493320108</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.07137808666792</v>
       </c>
       <c r="P4">
-        <v>12.3862891905553</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.1443330482034</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.28364689879069</v>
+      </c>
+      <c r="S4">
+        <v>14.79032678931851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.45812512456473</v>
+        <v>11.33385929606413</v>
       </c>
       <c r="C5">
-        <v>8.260462639898961</v>
+        <v>8.413382820224657</v>
       </c>
       <c r="D5">
-        <v>4.60212406562635</v>
+        <v>4.610096354369031</v>
       </c>
       <c r="E5">
-        <v>24.98949512811604</v>
+        <v>25.03245081916858</v>
       </c>
       <c r="F5">
-        <v>18.17551906247936</v>
+        <v>17.76989758592009</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.280843257336561</v>
+        <v>2.31088059380175</v>
       </c>
       <c r="I5">
-        <v>2.517667062987781</v>
+        <v>2.528191146920908</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>14.01107253166222</v>
+        <v>13.58244772212483</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.10673291487207</v>
       </c>
       <c r="M5">
-        <v>10.86088434530635</v>
+        <v>8.070004357198288</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.88102385541415</v>
       </c>
       <c r="P5">
-        <v>12.42161941326121</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.10137940151611</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.31702863345377</v>
+      </c>
+      <c r="S5">
+        <v>14.75742062591365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.41190595814376</v>
+        <v>11.29019567184954</v>
       </c>
       <c r="C6">
-        <v>8.248992946415163</v>
+        <v>8.398001793017887</v>
       </c>
       <c r="D6">
-        <v>4.596172380191244</v>
+        <v>4.603411609556839</v>
       </c>
       <c r="E6">
-        <v>24.90416776230668</v>
+        <v>24.94744293086155</v>
       </c>
       <c r="F6">
-        <v>18.14726376735485</v>
+        <v>17.74397810561423</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.270613951273825</v>
+        <v>2.300849513097012</v>
       </c>
       <c r="I6">
-        <v>2.528778505188324</v>
+        <v>2.524391652583471</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>14.00504182513842</v>
+        <v>13.57802013410364</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.10639370477375</v>
       </c>
       <c r="M6">
-        <v>10.82843213842603</v>
+        <v>8.06623551132715</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.84880166054992</v>
       </c>
       <c r="P6">
-        <v>12.42713159049443</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.08810726511738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.32233591405367</v>
+      </c>
+      <c r="S6">
+        <v>14.74589333206969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.67561018712617</v>
+        <v>11.53707339924776</v>
       </c>
       <c r="C7">
-        <v>8.412184448478753</v>
+        <v>8.591554804323042</v>
       </c>
       <c r="D7">
-        <v>4.649672882377763</v>
+        <v>4.662357074711609</v>
       </c>
       <c r="E7">
-        <v>25.48854626296592</v>
+        <v>25.52965848385903</v>
       </c>
       <c r="F7">
-        <v>18.27127397095577</v>
+        <v>17.85228490283379</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.339715449605789</v>
+        <v>2.368613318768211</v>
       </c>
       <c r="I7">
-        <v>2.48783907168509</v>
+        <v>2.562735360283808</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>13.99395195174751</v>
+        <v>13.55760733352706</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.06239408221462</v>
       </c>
       <c r="M7">
-        <v>11.04929042323036</v>
+        <v>8.063531565622583</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.06811082444434</v>
       </c>
       <c r="P7">
-        <v>12.38578423850147</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.12687234505361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.28344886303966</v>
+      </c>
+      <c r="S7">
+        <v>14.77325802493435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.78294756189851</v>
+        <v>12.57472416354205</v>
       </c>
       <c r="C8">
-        <v>9.080135177400763</v>
+        <v>9.384646874294257</v>
       </c>
       <c r="D8">
-        <v>4.873588044686947</v>
+        <v>4.909424043776665</v>
       </c>
       <c r="E8">
-        <v>27.92367022325604</v>
+        <v>27.95592963857168</v>
       </c>
       <c r="F8">
-        <v>18.84563610967046</v>
+        <v>18.35633671649085</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.633904806011716</v>
+        <v>2.657039629480591</v>
       </c>
       <c r="I8">
-        <v>2.64827513482777</v>
+        <v>2.723806147660126</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>13.96845981522999</v>
+        <v>13.48798600308334</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.8852404867481</v>
       </c>
       <c r="M8">
-        <v>11.97371474057218</v>
+        <v>8.105543222068896</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.9861257458916</v>
       </c>
       <c r="P8">
-        <v>12.20763871771261</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.32372572180799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.11635276824253</v>
+      </c>
+      <c r="S8">
+        <v>14.91801760260054</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.72075755764384</v>
+        <v>14.39205049484301</v>
       </c>
       <c r="C9">
-        <v>10.24930312159463</v>
+        <v>10.76957663937935</v>
       </c>
       <c r="D9">
-        <v>5.274163984044942</v>
+        <v>5.351984947906268</v>
       </c>
       <c r="E9">
-        <v>32.18391514572295</v>
+        <v>32.20071582707642</v>
       </c>
       <c r="F9">
-        <v>20.02159681987854</v>
+        <v>19.39343879139673</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.17266862777201</v>
+        <v>3.184956057003858</v>
       </c>
       <c r="I9">
-        <v>2.977038228637409</v>
+        <v>3.019610744914442</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>13.97694199667612</v>
+        <v>13.39961983992365</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.5707054614419</v>
       </c>
       <c r="M9">
-        <v>13.60158424721025</v>
+        <v>8.367133472093435</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.60271251666835</v>
       </c>
       <c r="P9">
-        <v>11.8709249618174</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.77404352549093</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.80263338271629</v>
+      </c>
+      <c r="S9">
+        <v>15.26111622452508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.95429894438188</v>
+        <v>15.55117677259137</v>
       </c>
       <c r="C10">
-        <v>11.01233602693658</v>
+        <v>11.66597065205201</v>
       </c>
       <c r="D10">
-        <v>5.571817543123639</v>
+        <v>5.677586443031345</v>
       </c>
       <c r="E10">
-        <v>34.12430945864936</v>
+        <v>34.13082410034367</v>
       </c>
       <c r="F10">
-        <v>20.7659682233496</v>
+        <v>20.04482018771468</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.511239691707321</v>
+        <v>3.516012575976612</v>
       </c>
       <c r="I10">
-        <v>3.203157889678835</v>
+        <v>3.224256881975328</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>13.9417452033851</v>
+        <v>13.29628252707669</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.30921086099942</v>
       </c>
       <c r="M10">
-        <v>14.64978943543485</v>
+        <v>8.603725136043654</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.64350810146957</v>
       </c>
       <c r="P10">
-        <v>11.63146530436631</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>16.03444922905944</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.58389773131787</v>
+      </c>
+      <c r="S10">
+        <v>15.44782763599088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.24026965830643</v>
+        <v>15.84396072910083</v>
       </c>
       <c r="C11">
-        <v>10.99376747146017</v>
+        <v>11.63399406131478</v>
       </c>
       <c r="D11">
-        <v>5.901394417719338</v>
+        <v>6.01306160953766</v>
       </c>
       <c r="E11">
-        <v>27.47110434772182</v>
+        <v>27.47575689779729</v>
       </c>
       <c r="F11">
-        <v>20.12379434581471</v>
+        <v>19.42436626584232</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.946336263901915</v>
+        <v>3.949150939620144</v>
       </c>
       <c r="I11">
-        <v>3.257689585267668</v>
+        <v>3.2760770199292</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>13.44925409543805</v>
+        <v>12.84414847087614</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.92219727900279</v>
       </c>
       <c r="M11">
-        <v>14.82624372390128</v>
+        <v>8.35885012008546</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.81906966854588</v>
       </c>
       <c r="P11">
-        <v>11.55127586838866</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>15.40423359511995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>11.53119221428304</v>
+      </c>
+      <c r="S11">
+        <v>14.8422127488233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.25280515248261</v>
+        <v>15.87715896675979</v>
       </c>
       <c r="C12">
-        <v>10.79597611105127</v>
+        <v>11.39666968344775</v>
       </c>
       <c r="D12">
-        <v>6.116343642775371</v>
+        <v>6.226371597572573</v>
       </c>
       <c r="E12">
-        <v>21.44698892170221</v>
+        <v>21.45216125372573</v>
       </c>
       <c r="F12">
-        <v>19.44035952572725</v>
+        <v>18.77906126069242</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.865928013356221</v>
+        <v>4.868206033463564</v>
       </c>
       <c r="I12">
-        <v>3.258182056651191</v>
+        <v>3.276608183424422</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>13.06447154140221</v>
+        <v>12.50754638840108</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.67660967679675</v>
       </c>
       <c r="M12">
-        <v>14.76549688104414</v>
+        <v>8.10915721616283</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.7589596482798</v>
       </c>
       <c r="P12">
-        <v>11.5453658743558</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.83167300683954</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>11.54175987122245</v>
+      </c>
+      <c r="S12">
+        <v>14.30631381399502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.03740521797425</v>
+        <v>15.69512509708831</v>
       </c>
       <c r="C13">
-        <v>10.47610298110725</v>
+        <v>11.01439844544581</v>
       </c>
       <c r="D13">
-        <v>6.264632816276642</v>
+        <v>6.367534294482569</v>
       </c>
       <c r="E13">
-        <v>15.38436015492668</v>
+        <v>15.39262673625904</v>
       </c>
       <c r="F13">
-        <v>18.63935432902708</v>
+        <v>18.03229423326285</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.982899485398007</v>
+        <v>5.985367449582841</v>
       </c>
       <c r="I13">
-        <v>3.221104395293191</v>
+        <v>3.243130192708732</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>12.7141067828408</v>
+        <v>12.21513142218074</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.49814125921264</v>
       </c>
       <c r="M13">
-        <v>14.51689187255825</v>
+        <v>7.82275616536054</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.51223018352622</v>
       </c>
       <c r="P13">
-        <v>11.59176013178222</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>14.23991986248566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>11.59724787169659</v>
+      </c>
+      <c r="S13">
+        <v>13.76355788555212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.7771724377275</v>
+        <v>15.46446620783023</v>
       </c>
       <c r="C14">
-        <v>10.20109635914085</v>
+        <v>10.68466518804327</v>
       </c>
       <c r="D14">
-        <v>6.34062489978104</v>
+        <v>6.436015521587912</v>
       </c>
       <c r="E14">
-        <v>11.11626691349142</v>
+        <v>11.12917590008832</v>
       </c>
       <c r="F14">
-        <v>18.01446802678203</v>
+        <v>17.45307251356698</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.836195761658683</v>
+        <v>6.838927830650757</v>
       </c>
       <c r="I14">
-        <v>3.179747387031674</v>
+        <v>3.206151515877187</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>12.48263264535137</v>
+        <v>12.02815836460576</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.39807856212752</v>
       </c>
       <c r="M14">
-        <v>14.25542149286334</v>
+        <v>7.606710837481987</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.25263035443523</v>
       </c>
       <c r="P14">
-        <v>11.64778473281358</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.81306907450345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>11.6560168695335</v>
+      </c>
+      <c r="S14">
+        <v>13.37661297510878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.6585211359314</v>
+        <v>15.35593651821685</v>
       </c>
       <c r="C15">
-        <v>10.11409838641022</v>
+        <v>10.57941257361228</v>
       </c>
       <c r="D15">
-        <v>6.346207835575511</v>
+        <v>6.438697014555959</v>
       </c>
       <c r="E15">
-        <v>10.06961916273214</v>
+        <v>10.08475248343697</v>
       </c>
       <c r="F15">
-        <v>17.83085610898499</v>
+        <v>17.28407419695518</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.032618020187282</v>
+        <v>7.03551304666607</v>
       </c>
       <c r="I15">
-        <v>3.162289055135162</v>
+        <v>3.191048633006199</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>12.42912630178874</v>
+        <v>11.98754428030775</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.38210704673446</v>
       </c>
       <c r="M15">
-        <v>14.14986587471468</v>
+        <v>7.545030484917753</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.14781988793312</v>
       </c>
       <c r="P15">
-        <v>11.67126369684314</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.70119924458504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>11.67887266441738</v>
+      </c>
+      <c r="S15">
+        <v>13.27704073888158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.17507226241054</v>
+        <v>14.8988893378147</v>
       </c>
       <c r="C16">
-        <v>9.857506595517892</v>
+        <v>10.27587488643502</v>
       </c>
       <c r="D16">
-        <v>6.200692804069182</v>
+        <v>6.283258988665601</v>
       </c>
       <c r="E16">
-        <v>9.980255023303819</v>
+        <v>10.00168273174197</v>
       </c>
       <c r="F16">
-        <v>17.63199554064759</v>
+        <v>17.11569510304647</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.76239872888232</v>
+        <v>6.766448502502699</v>
       </c>
       <c r="I16">
-        <v>3.076493873842678</v>
+        <v>3.114161324593808</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>12.50698408771947</v>
+        <v>12.08109077114191</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.492939686855</v>
       </c>
       <c r="M16">
-        <v>13.75411159859762</v>
+        <v>7.506509208009489</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.75484884222775</v>
       </c>
       <c r="P16">
-        <v>11.75423004709029</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.69178618372537</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>11.74947783594685</v>
+      </c>
+      <c r="S16">
+        <v>13.28954325358264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.94034228178939</v>
+        <v>14.66830219112425</v>
       </c>
       <c r="C17">
-        <v>9.809960812227537</v>
+        <v>10.22230783494848</v>
       </c>
       <c r="D17">
-        <v>6.045550797308479</v>
+        <v>6.124482111317264</v>
       </c>
       <c r="E17">
-        <v>12.25822363921438</v>
+        <v>12.27989067380063</v>
       </c>
       <c r="F17">
-        <v>17.82068414504299</v>
+        <v>17.30294303174032</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.051370686398369</v>
+        <v>6.056465954528218</v>
       </c>
       <c r="I17">
-        <v>3.032216885589288</v>
+        <v>3.074538272810266</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>12.68835859296104</v>
+        <v>12.25150963175713</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.63757050577795</v>
       </c>
       <c r="M17">
-        <v>13.58929445442466</v>
+        <v>7.588792249014046</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.59117807410014</v>
       </c>
       <c r="P17">
-        <v>11.78966232756635</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.91333074047071</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>11.77449568508681</v>
+      </c>
+      <c r="S17">
+        <v>13.50661966539368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.91364225146342</v>
+        <v>14.62634042780318</v>
       </c>
       <c r="C18">
-        <v>9.927368558802526</v>
+        <v>10.36880529261828</v>
       </c>
       <c r="D18">
-        <v>5.863428151675397</v>
+        <v>5.943528438716155</v>
       </c>
       <c r="E18">
-        <v>17.01342592298928</v>
+        <v>17.03217290275713</v>
       </c>
       <c r="F18">
-        <v>18.3751540241524</v>
+        <v>17.82835031024188</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.952860744352262</v>
+        <v>4.959342992072147</v>
       </c>
       <c r="I18">
-        <v>3.018041488228032</v>
+        <v>3.060465663194445</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>12.99239939867063</v>
+        <v>12.52007092714191</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.84144717751928</v>
       </c>
       <c r="M18">
-        <v>13.61320626787202</v>
+        <v>7.785084609982354</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.61486207080898</v>
       </c>
       <c r="P18">
-        <v>11.79191251815124</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.36848465797167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>11.7656688337571</v>
+      </c>
+      <c r="S18">
+        <v>13.93419941247825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.03407416539761</v>
+        <v>14.71732091672145</v>
       </c>
       <c r="C19">
-        <v>10.21473355073933</v>
+        <v>10.71237169071206</v>
       </c>
       <c r="D19">
-        <v>5.683522175553034</v>
+        <v>5.768277339187064</v>
       </c>
       <c r="E19">
-        <v>23.40576149993905</v>
+        <v>23.42126008434739</v>
       </c>
       <c r="F19">
-        <v>19.13699763226718</v>
+        <v>18.54176217074171</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.859217372795575</v>
+        <v>3.867394044270668</v>
       </c>
       <c r="I19">
-        <v>3.041020127350557</v>
+        <v>3.081719002729888</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>13.35053756382252</v>
+        <v>12.82659152553379</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.0647171615265</v>
       </c>
       <c r="M19">
-        <v>13.789684198928</v>
+        <v>8.036560402895581</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.7899503792218</v>
       </c>
       <c r="P19">
-        <v>11.77470881223122</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.95024188967643</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>11.73710513705189</v>
+      </c>
+      <c r="S19">
+        <v>14.47242020726771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.5989172827277</v>
+        <v>15.21539349090466</v>
       </c>
       <c r="C20">
-        <v>10.87978858636421</v>
+        <v>11.50100279949308</v>
       </c>
       <c r="D20">
-        <v>5.507181057839743</v>
+        <v>5.606057390381586</v>
       </c>
       <c r="E20">
-        <v>33.58559561377164</v>
+        <v>33.59485057621654</v>
       </c>
       <c r="F20">
-        <v>20.50285873930573</v>
+        <v>19.80695430005716</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.420019494016994</v>
+        <v>3.426801307899711</v>
       </c>
       <c r="I20">
-        <v>3.153006388319887</v>
+        <v>3.182815725976706</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>13.8962425596751</v>
+        <v>13.27226064776292</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.34260417634814</v>
       </c>
       <c r="M20">
-        <v>14.37881170775363</v>
+        <v>8.49300046454464</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.37449484320235</v>
       </c>
       <c r="P20">
-        <v>11.6927033555485</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.91163024476946</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.64122613060742</v>
+      </c>
+      <c r="S20">
+        <v>15.3457303361404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.54801897287184</v>
+        <v>16.10306794704207</v>
       </c>
       <c r="C21">
-        <v>11.49938616294561</v>
+        <v>12.22999830507708</v>
       </c>
       <c r="D21">
-        <v>5.691648919957629</v>
+        <v>5.812108097639058</v>
       </c>
       <c r="E21">
-        <v>36.34740164756523</v>
+        <v>36.34838078669716</v>
       </c>
       <c r="F21">
-        <v>21.2577797945272</v>
+        <v>20.48003402778315</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.728106867305959</v>
+        <v>3.72882713226211</v>
       </c>
       <c r="I21">
-        <v>3.331171308599957</v>
+        <v>3.343356813799223</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>13.96874248995253</v>
+        <v>13.27770334571635</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.20161586783415</v>
       </c>
       <c r="M21">
-        <v>15.19763087724709</v>
+        <v>8.768084299986416</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.18731244885169</v>
       </c>
       <c r="P21">
-        <v>11.50842576376028</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>16.25994237556649</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.4701339698084</v>
+      </c>
+      <c r="S21">
+        <v>15.62674080260431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.1419332691643</v>
+        <v>16.66062207734272</v>
       </c>
       <c r="C22">
-        <v>11.84449444198241</v>
+        <v>12.63857443147214</v>
       </c>
       <c r="D22">
-        <v>5.81529523932084</v>
+        <v>5.948933829578511</v>
       </c>
       <c r="E22">
-        <v>37.64282077716307</v>
+        <v>37.63856329915148</v>
       </c>
       <c r="F22">
-        <v>21.71786055404018</v>
+        <v>20.8908720562151</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.907845874842119</v>
+        <v>3.904715681388993</v>
       </c>
       <c r="I22">
-        <v>3.439360583954375</v>
+        <v>3.43932905796884</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>14.01456127710372</v>
+        <v>13.2815211928675</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.10666469452609</v>
       </c>
       <c r="M22">
-        <v>15.69570572718696</v>
+        <v>8.960011065171122</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.68164921211622</v>
       </c>
       <c r="P22">
-        <v>11.39019718110908</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.46835951508426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.36117013888543</v>
+      </c>
+      <c r="S22">
+        <v>15.79415270967846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.84193733765985</v>
+        <v>16.37973936566091</v>
       </c>
       <c r="C23">
-        <v>11.63772947767981</v>
+        <v>12.39758855975397</v>
       </c>
       <c r="D23">
-        <v>5.745655946673898</v>
+        <v>5.872199279206121</v>
       </c>
       <c r="E23">
-        <v>36.9570493021689</v>
+        <v>36.95556232416418</v>
       </c>
       <c r="F23">
-        <v>21.49532083691411</v>
+        <v>20.69429528752221</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.812670831534643</v>
+        <v>3.811577267536638</v>
       </c>
       <c r="I23">
-        <v>3.378436236436159</v>
+        <v>3.383684840011585</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>14.00896518911585</v>
+        <v>13.29730410659203</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.16891204789195</v>
       </c>
       <c r="M23">
-        <v>15.43245761143909</v>
+        <v>8.872615144929094</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.42037726910818</v>
       </c>
       <c r="P23">
-        <v>11.45357420530602</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>16.37498293285371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.41890902452303</v>
+      </c>
+      <c r="S23">
+        <v>15.72228342267009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.62756626883392</v>
+        <v>15.24117851378592</v>
       </c>
       <c r="C24">
-        <v>10.86779119011813</v>
+        <v>11.4928219029352</v>
       </c>
       <c r="D24">
-        <v>5.479994499248911</v>
+        <v>5.578857145162671</v>
       </c>
       <c r="E24">
-        <v>34.24777699937334</v>
+        <v>34.25687752125402</v>
       </c>
       <c r="F24">
-        <v>20.61435461528705</v>
+        <v>19.91357257568704</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.444200753399195</v>
+        <v>3.450885222674329</v>
       </c>
       <c r="I24">
-        <v>3.149172388773695</v>
+        <v>3.176782926975461</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>13.96651803113827</v>
+        <v>13.33554115954006</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.38918054963117</v>
       </c>
       <c r="M24">
-        <v>14.39222507399658</v>
+        <v>8.543534435173953</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.3877594085661</v>
       </c>
       <c r="P24">
-        <v>11.69497048499199</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>16.00138176452795</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.64078836505579</v>
+      </c>
+      <c r="S24">
+        <v>15.4307075755319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.1988948665885</v>
+        <v>13.90135864331356</v>
       </c>
       <c r="C25">
-        <v>9.984591649717338</v>
+        <v>10.45084172220321</v>
       </c>
       <c r="D25">
-        <v>5.175941388275935</v>
+        <v>5.242980558888427</v>
       </c>
       <c r="E25">
-        <v>31.08536142415621</v>
+        <v>31.10621295641197</v>
       </c>
       <c r="F25">
-        <v>19.66509985647451</v>
+        <v>19.07475442897145</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.030237219978639</v>
+        <v>3.045437398644185</v>
       </c>
       <c r="I25">
-        <v>2.894535598391344</v>
+        <v>2.947403149481068</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>13.94144579554665</v>
+        <v>13.39286499168453</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.6336626936466</v>
       </c>
       <c r="M25">
-        <v>13.1801947318268</v>
+        <v>8.256964684940735</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.18427773045837</v>
       </c>
       <c r="P25">
-        <v>11.95981467247743</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.61919233765501</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.88588627931393</v>
+      </c>
+      <c r="S25">
+        <v>15.13623376423083</v>
       </c>
     </row>
   </sheetData>
